--- a/Immowelt_Google_Extension/immowelt_test5_neu.xlsx
+++ b/Immowelt_Google_Extension/immowelt_test5_neu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielhausermann/Desktop/Immowelt Web Scraper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoppenheim/Documents/Gruppe4_Data2Dollar/Immowelt_Google_Extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771713D3-5B6C-9B49-99D5-015EA21B84DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C013B312-7D82-6845-9069-BE3CBA3996E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1480" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="immowelt_test5_neu" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8672" uniqueCount="3369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8676" uniqueCount="3373">
   <si>
     <t>web-scraper-order</t>
   </si>
@@ -15070,12 +15070,27 @@
   <si>
     <t>2020/2021</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Zimmergrösse</t>
+  </si>
+  <si>
+    <t>Breitengrad</t>
+  </si>
+  <si>
+    <t>Längengrad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -15206,6 +15221,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -15552,7 +15574,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -15566,50 +15588,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -15625,7 +15649,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15921,11 +15945,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z475"/>
+  <dimension ref="A1:AD475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
+      <selection pane="bottomLeft" activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15956,9 +15980,10 @@
     <col min="24" max="24" width="39.1640625" customWidth="1"/>
     <col min="25" max="25" width="23.6640625" customWidth="1"/>
     <col min="26" max="26" width="45.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16037,8 +16062,20 @@
       <c r="Z1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="AA1" s="2" t="s">
+        <v>3369</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>3371</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>3372</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1068</v>
       </c>
@@ -16117,8 +16154,15 @@
       <c r="Z2" s="1" t="s">
         <v>1070</v>
       </c>
+      <c r="AA2" s="7">
+        <f>G2/L2</f>
+        <v>17.134757383966242</v>
+      </c>
+      <c r="AB2">
+        <v>18.96</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1148</v>
       </c>
@@ -16197,8 +16241,21 @@
       <c r="Z3" s="1" t="s">
         <v>1150</v>
       </c>
+      <c r="AA3" s="7">
+        <f t="shared" ref="AA3:AA66" si="0">G3/L3</f>
+        <v>20</v>
+      </c>
+      <c r="AB3">
+        <v>31.666666666666668</v>
+      </c>
+      <c r="AC3">
+        <v>52.528496088095203</v>
+      </c>
+      <c r="AD3">
+        <v>13.396950626971799</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2319</v>
       </c>
@@ -16277,8 +16334,15 @@
       <c r="Z4" s="1" t="s">
         <v>2321</v>
       </c>
+      <c r="AA4" s="7">
+        <f t="shared" si="0"/>
+        <v>20.54054054054054</v>
+      </c>
+      <c r="AB4">
+        <v>30.833333333333332</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1722</v>
       </c>
@@ -16357,8 +16421,15 @@
       <c r="Z5" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA5" s="7">
+        <f t="shared" si="0"/>
+        <v>24.578360655737704</v>
+      </c>
+      <c r="AB5">
+        <v>34.857142857142854</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1262</v>
       </c>
@@ -16437,8 +16508,15 @@
       <c r="Z6" s="1" t="s">
         <v>1264</v>
       </c>
+      <c r="AA6" s="7">
+        <f t="shared" si="0"/>
+        <v>17.00027660604384</v>
+      </c>
+      <c r="AB6">
+        <v>48.20333333333334</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1978</v>
       </c>
@@ -16517,8 +16595,15 @@
       <c r="Z7" s="1" t="s">
         <v>1980</v>
       </c>
+      <c r="AA7" s="7">
+        <f t="shared" si="0"/>
+        <v>18.97734130685247</v>
+      </c>
+      <c r="AB7">
+        <v>36.454000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>928</v>
       </c>
@@ -16597,8 +16682,15 @@
       <c r="Z8" s="1" t="s">
         <v>930</v>
       </c>
+      <c r="AA8" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AB8">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1760</v>
       </c>
@@ -16677,8 +16769,15 @@
       <c r="Z9" s="1" t="s">
         <v>1762</v>
       </c>
+      <c r="AA9" s="7">
+        <f t="shared" si="0"/>
+        <v>16.44736842105263</v>
+      </c>
+      <c r="AB9">
+        <v>25.333333333333332</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1973</v>
       </c>
@@ -16757,8 +16856,15 @@
       <c r="Z10" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA10" s="7">
+        <f>G10/L10</f>
+        <v>23.148148148148149</v>
+      </c>
+      <c r="AB10">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>992</v>
       </c>
@@ -16837,8 +16943,15 @@
       <c r="Z11" s="1" t="s">
         <v>994</v>
       </c>
+      <c r="AA11" s="7">
+        <f t="shared" si="0"/>
+        <v>11.833333333333334</v>
+      </c>
+      <c r="AB11">
+        <v>28</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1680</v>
       </c>
@@ -16917,8 +17030,15 @@
       <c r="Z12" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA12" s="7">
+        <f t="shared" si="0"/>
+        <v>12.25671347622567</v>
+      </c>
+      <c r="AB12">
+        <v>27.060000000000002</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1767</v>
       </c>
@@ -16997,8 +17117,17 @@
       <c r="Z13" s="1" t="s">
         <v>1769</v>
       </c>
+      <c r="AA13" s="7">
+        <f t="shared" si="0"/>
+        <v>13.004056311142927</v>
+      </c>
+      <c r="AB13">
+        <v>27.939999999999998</v>
+      </c>
+      <c r="AC13"/>
+      <c r="AD13"/>
     </row>
-    <row r="14" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -17077,8 +17206,15 @@
       <c r="Z14" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="AA14" s="7">
+        <f t="shared" si="0"/>
+        <v>28.667091836734695</v>
+      </c>
+      <c r="AB14">
+        <v>31.36</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>244</v>
       </c>
@@ -17157,8 +17293,15 @@
       <c r="Z15" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="AA15" s="7">
+        <f t="shared" si="0"/>
+        <v>20.238095238095237</v>
+      </c>
+      <c r="AB15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>692</v>
       </c>
@@ -17237,8 +17380,15 @@
       <c r="Z16" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="AA16" s="7">
+        <f t="shared" si="0"/>
+        <v>20.238095238095237</v>
+      </c>
+      <c r="AB16">
+        <v>21</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1650</v>
       </c>
@@ -17317,8 +17467,15 @@
       <c r="Z17" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="AA17" s="7">
+        <f t="shared" si="0"/>
+        <v>20.238095238095237</v>
+      </c>
+      <c r="AB17">
+        <v>21</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>802</v>
       </c>
@@ -17397,8 +17554,15 @@
       <c r="Z18" s="1" t="s">
         <v>804</v>
       </c>
+      <c r="AA18" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AB18">
+        <v>22</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1696</v>
       </c>
@@ -17477,8 +17641,15 @@
       <c r="Z19" s="1" t="s">
         <v>1698</v>
       </c>
+      <c r="AA19" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AB19">
+        <v>53.333333333333336</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>607</v>
       </c>
@@ -17557,8 +17728,15 @@
       <c r="Z20" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="AA20" s="7">
+        <f t="shared" si="0"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="AB20">
+        <v>42</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1860</v>
       </c>
@@ -17637,8 +17815,15 @@
       <c r="Z21" s="1" t="s">
         <v>1862</v>
       </c>
+      <c r="AA21" s="7">
+        <f t="shared" si="0"/>
+        <v>20.62937062937063</v>
+      </c>
+      <c r="AB21">
+        <v>35.75</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>262</v>
       </c>
@@ -17717,8 +17902,15 @@
       <c r="Z22" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="AA22" s="7">
+        <f t="shared" si="0"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="AB22">
+        <v>42</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>945</v>
       </c>
@@ -17797,8 +17989,15 @@
       <c r="Z23" s="1" t="s">
         <v>947</v>
       </c>
+      <c r="AA23" s="7">
+        <f t="shared" si="0"/>
+        <v>14.175824175824175</v>
+      </c>
+      <c r="AB23">
+        <v>36.4</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1619</v>
       </c>
@@ -17877,8 +18076,15 @@
       <c r="Z24" s="1" t="s">
         <v>1621</v>
       </c>
+      <c r="AA24" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AB24">
+        <v>34.46</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1995</v>
       </c>
@@ -17957,8 +18163,21 @@
       <c r="Z25" s="1" t="s">
         <v>1997</v>
       </c>
+      <c r="AA25" s="7">
+        <f t="shared" si="0"/>
+        <v>18.452380952380953</v>
+      </c>
+      <c r="AB25">
+        <v>84</v>
+      </c>
+      <c r="AC25">
+        <v>52.494407161905102</v>
+      </c>
+      <c r="AD25">
+        <v>13.5619841423115</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -18037,8 +18256,15 @@
       <c r="Z26" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AA26" s="7">
+        <f t="shared" si="0"/>
+        <v>15.9</v>
+      </c>
+      <c r="AB26">
+        <v>25</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1984</v>
       </c>
@@ -18117,8 +18343,15 @@
       <c r="Z27" s="1" t="s">
         <v>1986</v>
       </c>
+      <c r="AA27" s="7">
+        <f t="shared" si="0"/>
+        <v>15.4985754985755</v>
+      </c>
+      <c r="AB27">
+        <v>35.1</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>676</v>
       </c>
@@ -18197,8 +18430,15 @@
       <c r="Z28" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA28" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AB28">
+        <v>25.545000000000002</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>796</v>
       </c>
@@ -18277,8 +18517,15 @@
       <c r="Z29" s="1" t="s">
         <v>798</v>
       </c>
+      <c r="AA29" s="7">
+        <f t="shared" si="0"/>
+        <v>12.000000000000002</v>
+      </c>
+      <c r="AB29">
+        <v>26.533333333333331</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2031</v>
       </c>
@@ -18357,8 +18604,15 @@
       <c r="Z30" s="1" t="s">
         <v>2033</v>
       </c>
+      <c r="AA30" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB30">
+        <v>27.25</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1008</v>
       </c>
@@ -18437,8 +18691,15 @@
       <c r="Z31" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA31" s="7">
+        <f t="shared" si="0"/>
+        <v>21.904761904761905</v>
+      </c>
+      <c r="AB31">
+        <v>60</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>687</v>
       </c>
@@ -18517,8 +18778,15 @@
       <c r="Z32" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA32" s="7">
+        <f t="shared" si="0"/>
+        <v>21.904761904761905</v>
+      </c>
+      <c r="AB32">
+        <v>60</v>
+      </c>
     </row>
-    <row r="33" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2069</v>
       </c>
@@ -18597,8 +18865,15 @@
       <c r="Z33" s="1" t="s">
         <v>2071</v>
       </c>
+      <c r="AA33" s="7">
+        <f t="shared" si="0"/>
+        <v>10.924657534246576</v>
+      </c>
+      <c r="AB33">
+        <v>29.2</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2037</v>
       </c>
@@ -18677,8 +18952,15 @@
       <c r="Z34" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA34" s="7">
+        <f t="shared" si="0"/>
+        <v>14.142857142857142</v>
+      </c>
+      <c r="AB34">
+        <v>23.333333333333332</v>
+      </c>
     </row>
-    <row r="35" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>706</v>
       </c>
@@ -18757,8 +19039,15 @@
       <c r="Z35" s="1" t="s">
         <v>708</v>
       </c>
+      <c r="AA35" s="7">
+        <f t="shared" si="0"/>
+        <v>15.150050128105159</v>
+      </c>
+      <c r="AB35">
+        <v>29.923333333333332</v>
+      </c>
     </row>
-    <row r="36" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2293</v>
       </c>
@@ -18837,8 +19126,15 @@
       <c r="Z36" s="1" t="s">
         <v>2295</v>
       </c>
+      <c r="AA36" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB36">
+        <v>49</v>
+      </c>
     </row>
-    <row r="37" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1684</v>
       </c>
@@ -18917,8 +19213,15 @@
       <c r="Z37" s="1" t="s">
         <v>1686</v>
       </c>
+      <c r="AA37" s="7">
+        <f t="shared" si="0"/>
+        <v>10.589147286821705</v>
+      </c>
+      <c r="AB37">
+        <v>64.5</v>
+      </c>
     </row>
-    <row r="38" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1389</v>
       </c>
@@ -18997,8 +19300,15 @@
       <c r="Z38" s="1" t="s">
         <v>1391</v>
       </c>
+      <c r="AA38" s="7">
+        <f t="shared" si="0"/>
+        <v>12.303069317128438</v>
+      </c>
+      <c r="AB38">
+        <v>35.305454545454545</v>
+      </c>
     </row>
-    <row r="39" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2110</v>
       </c>
@@ -19077,8 +19387,15 @@
       <c r="Z39" s="1" t="s">
         <v>1747</v>
       </c>
+      <c r="AA39" s="7">
+        <f t="shared" si="0"/>
+        <v>11.280091708062667</v>
+      </c>
+      <c r="AB39">
+        <v>34.893333333333338</v>
+      </c>
     </row>
-    <row r="40" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1745</v>
       </c>
@@ -19157,8 +19474,15 @@
       <c r="Z40" s="1" t="s">
         <v>1747</v>
       </c>
+      <c r="AA40" s="7">
+        <f t="shared" si="0"/>
+        <v>13.460025542784164</v>
+      </c>
+      <c r="AB40">
+        <v>39.15</v>
+      </c>
     </row>
-    <row r="41" spans="1:26" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1512</v>
       </c>
@@ -19237,8 +19561,17 @@
       <c r="Z41" s="1" t="s">
         <v>1514</v>
       </c>
+      <c r="AA41" s="7">
+        <f t="shared" si="0"/>
+        <v>21.73469387755102</v>
+      </c>
+      <c r="AB41">
+        <v>24.5</v>
+      </c>
+      <c r="AC41"/>
+      <c r="AD41"/>
     </row>
-    <row r="42" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>288</v>
       </c>
@@ -19317,8 +19650,15 @@
       <c r="Z42" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="AA42" s="7">
+        <f t="shared" si="0"/>
+        <v>16.111111111111111</v>
+      </c>
+      <c r="AB42">
+        <v>30</v>
+      </c>
     </row>
-    <row r="43" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>589</v>
       </c>
@@ -19397,8 +19737,15 @@
       <c r="Z43" s="1" t="s">
         <v>591</v>
       </c>
+      <c r="AA43" s="7">
+        <f t="shared" si="0"/>
+        <v>15.934065934065934</v>
+      </c>
+      <c r="AB43">
+        <v>30.333333333333332</v>
+      </c>
     </row>
-    <row r="44" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1074</v>
       </c>
@@ -19477,8 +19824,15 @@
       <c r="Z44" s="1" t="s">
         <v>1076</v>
       </c>
+      <c r="AA44" s="7">
+        <f t="shared" si="0"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="AB44">
+        <v>30</v>
+      </c>
     </row>
-    <row r="45" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2127</v>
       </c>
@@ -19557,8 +19911,15 @@
       <c r="Z45" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="AA45" s="7">
+        <f t="shared" si="0"/>
+        <v>16.111111111111111</v>
+      </c>
+      <c r="AB45">
+        <v>30</v>
+      </c>
     </row>
-    <row r="46" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1137</v>
       </c>
@@ -19637,8 +19998,15 @@
       <c r="Z46" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA46" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AB46">
+        <v>32.340000000000003</v>
+      </c>
     </row>
-    <row r="47" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1220</v>
       </c>
@@ -19717,8 +20085,15 @@
       <c r="Z47" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA47" s="7">
+        <f t="shared" si="0"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="AB47">
+        <v>33.950000000000003</v>
+      </c>
     </row>
-    <row r="48" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1803</v>
       </c>
@@ -19797,8 +20172,15 @@
       <c r="Z48" s="1" t="s">
         <v>1805</v>
       </c>
+      <c r="AA48" s="7">
+        <f t="shared" si="0"/>
+        <v>11.011406844106464</v>
+      </c>
+      <c r="AB48">
+        <v>32.875</v>
+      </c>
     </row>
-    <row r="49" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>874</v>
       </c>
@@ -19877,8 +20259,15 @@
       <c r="Z49" s="1" t="s">
         <v>876</v>
       </c>
+      <c r="AA49" s="7">
+        <f t="shared" si="0"/>
+        <v>13.235294117647058</v>
+      </c>
+      <c r="AB49" t="e">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="50" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -19957,8 +20346,15 @@
       <c r="Z50" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="AA50" s="7">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+      <c r="AB50">
+        <v>31.25</v>
+      </c>
     </row>
-    <row r="51" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>465</v>
       </c>
@@ -20037,8 +20433,15 @@
       <c r="Z51" s="1" t="s">
         <v>467</v>
       </c>
+      <c r="AA51" s="7">
+        <f t="shared" si="0"/>
+        <v>12.02</v>
+      </c>
+      <c r="AB51">
+        <v>37</v>
+      </c>
     </row>
-    <row r="52" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1789</v>
       </c>
@@ -20117,8 +20520,15 @@
       <c r="Z52" s="1" t="s">
         <v>340</v>
       </c>
+      <c r="AA52" s="7">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="AB52">
+        <v>25.666666666666668</v>
+      </c>
     </row>
-    <row r="53" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>338</v>
       </c>
@@ -20197,8 +20607,15 @@
       <c r="Z53" s="1" t="s">
         <v>340</v>
       </c>
+      <c r="AA53" s="7">
+        <f t="shared" si="0"/>
+        <v>27.502184253955924</v>
+      </c>
+      <c r="AB53">
+        <v>20.602</v>
+      </c>
     </row>
-    <row r="54" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1523</v>
       </c>
@@ -20277,8 +20694,15 @@
       <c r="Z54" s="1" t="s">
         <v>1525</v>
       </c>
+      <c r="AA54" s="7">
+        <f t="shared" si="0"/>
+        <v>15.457788347205708</v>
+      </c>
+      <c r="AB54">
+        <v>21.024999999999999</v>
+      </c>
     </row>
-    <row r="55" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>530</v>
       </c>
@@ -20357,8 +20781,15 @@
       <c r="Z55" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA55" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AB55">
+        <v>31.93</v>
+      </c>
     </row>
-    <row r="56" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1625</v>
       </c>
@@ -20437,8 +20868,15 @@
       <c r="Z56" s="1" t="s">
         <v>1627</v>
       </c>
+      <c r="AA56" s="7">
+        <f t="shared" si="0"/>
+        <v>15.714285714285714</v>
+      </c>
+      <c r="AB56">
+        <v>28</v>
+      </c>
     </row>
-    <row r="57" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>808</v>
       </c>
@@ -20517,8 +20955,15 @@
       <c r="Z57" s="1" t="s">
         <v>810</v>
       </c>
+      <c r="AA57" s="7">
+        <f t="shared" si="0"/>
+        <v>14.439954359608254</v>
+      </c>
+      <c r="AB57">
+        <v>105.17</v>
+      </c>
     </row>
-    <row r="58" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1207</v>
       </c>
@@ -20597,8 +21042,15 @@
       <c r="Z58" s="1" t="s">
         <v>810</v>
       </c>
+      <c r="AA58" s="7">
+        <f t="shared" si="0"/>
+        <v>13.940008822232024</v>
+      </c>
+      <c r="AB58">
+        <v>45.34</v>
+      </c>
     </row>
-    <row r="59" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1546</v>
       </c>
@@ -20677,8 +21129,15 @@
       <c r="Z59" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA59" s="7">
+        <f t="shared" si="0"/>
+        <v>12.422923467537178</v>
+      </c>
+      <c r="AB59">
+        <v>27.57</v>
+      </c>
     </row>
-    <row r="60" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>609</v>
       </c>
@@ -20757,8 +21216,15 @@
       <c r="Z60" s="1" t="s">
         <v>611</v>
       </c>
+      <c r="AA60" s="7">
+        <f t="shared" si="0"/>
+        <v>20.692307692307693</v>
+      </c>
+      <c r="AB60">
+        <v>65</v>
+      </c>
     </row>
-    <row r="61" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1442</v>
       </c>
@@ -20837,8 +21303,15 @@
       <c r="Z61" s="1" t="s">
         <v>1444</v>
       </c>
+      <c r="AA61" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AB61">
+        <v>30</v>
+      </c>
     </row>
-    <row r="62" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1490</v>
       </c>
@@ -20917,8 +21390,15 @@
       <c r="Z62" s="1" t="s">
         <v>1492</v>
       </c>
+      <c r="AA62" s="7">
+        <f t="shared" si="0"/>
+        <v>7.9710144927536231</v>
+      </c>
+      <c r="AB62">
+        <v>27.6</v>
+      </c>
     </row>
-    <row r="63" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1469</v>
       </c>
@@ -20997,8 +21477,15 @@
       <c r="Z63" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="AA63" s="7">
+        <f t="shared" si="0"/>
+        <v>12.007469654528478</v>
+      </c>
+      <c r="AB63">
+        <v>26.774999999999999</v>
+      </c>
     </row>
-    <row r="64" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1893</v>
       </c>
@@ -21077,8 +21564,15 @@
       <c r="Z64" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="AA64" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB64">
+        <v>64</v>
+      </c>
     </row>
-    <row r="65" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -21157,8 +21651,15 @@
       <c r="Z65" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="AA65" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AB65">
+        <v>28.385000000000002</v>
+      </c>
     </row>
-    <row r="66" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2223</v>
       </c>
@@ -21237,8 +21738,15 @@
       <c r="Z66" s="1" t="s">
         <v>2225</v>
       </c>
+      <c r="AA66" s="7">
+        <f t="shared" si="0"/>
+        <v>7.5000564907920007</v>
+      </c>
+      <c r="AB66">
+        <v>29.503333333333334</v>
+      </c>
     </row>
-    <row r="67" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1431</v>
       </c>
@@ -21317,8 +21825,15 @@
       <c r="Z67" s="1" t="s">
         <v>1433</v>
       </c>
+      <c r="AA67" s="7">
+        <f t="shared" ref="AA67:AA130" si="1">G67/L67</f>
+        <v>11.048951048951048</v>
+      </c>
+      <c r="AB67">
+        <v>28.6</v>
+      </c>
     </row>
-    <row r="68" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>158</v>
       </c>
@@ -21397,8 +21912,15 @@
       <c r="Z68" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="AA68" s="7">
+        <f t="shared" si="1"/>
+        <v>7.2992700729927016</v>
+      </c>
+      <c r="AB68">
+        <v>33.564999999999998</v>
+      </c>
     </row>
-    <row r="69" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2271</v>
       </c>
@@ -21477,8 +21999,15 @@
       <c r="Z69" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA69" s="7">
+        <f t="shared" si="1"/>
+        <v>6.4681313375181073</v>
+      </c>
+      <c r="AB69">
+        <v>20.71</v>
+      </c>
     </row>
-    <row r="70" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>274</v>
       </c>
@@ -21557,8 +22086,15 @@
       <c r="Z70" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="AA70" s="7">
+        <f t="shared" si="1"/>
+        <v>9.14</v>
+      </c>
+      <c r="AB70">
+        <v>25</v>
+      </c>
     </row>
-    <row r="71" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2025</v>
       </c>
@@ -21637,8 +22173,15 @@
       <c r="Z71" s="1" t="s">
         <v>2027</v>
       </c>
+      <c r="AA71" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AB71">
+        <v>24.965</v>
+      </c>
     </row>
-    <row r="72" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>630</v>
       </c>
@@ -21717,8 +22260,15 @@
       <c r="Z72" s="1" t="s">
         <v>632</v>
       </c>
+      <c r="AA72" s="7">
+        <f t="shared" si="1"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="AB72">
+        <v>42</v>
+      </c>
     </row>
-    <row r="73" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>776</v>
       </c>
@@ -21797,8 +22347,15 @@
       <c r="Z73" s="1" t="s">
         <v>778</v>
       </c>
+      <c r="AA73" s="7">
+        <f t="shared" si="1"/>
+        <v>17.465862178469358</v>
+      </c>
+      <c r="AB73">
+        <v>31.49</v>
+      </c>
     </row>
-    <row r="74" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1436</v>
       </c>
@@ -21877,8 +22434,15 @@
       <c r="Z74" s="1" t="s">
         <v>1438</v>
       </c>
+      <c r="AA74" s="7">
+        <f t="shared" si="1"/>
+        <v>7.9778300302317771</v>
+      </c>
+      <c r="AB74">
+        <v>29.77</v>
+      </c>
     </row>
-    <row r="75" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>2305</v>
       </c>
@@ -21957,8 +22521,15 @@
       <c r="Z75" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA75" s="7">
+        <f t="shared" si="1"/>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="AB75">
+        <v>35</v>
+      </c>
     </row>
-    <row r="76" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2299</v>
       </c>
@@ -22037,8 +22608,15 @@
       <c r="Z76" s="1" t="s">
         <v>2301</v>
       </c>
+      <c r="AA76" s="7">
+        <f t="shared" si="1"/>
+        <v>12.105263157894736</v>
+      </c>
+      <c r="AB76">
+        <v>28.5</v>
+      </c>
     </row>
-    <row r="77" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -22117,8 +22695,15 @@
       <c r="Z77" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="AA77" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AB77">
+        <v>21.333333333333332</v>
+      </c>
     </row>
-    <row r="78" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2009</v>
       </c>
@@ -22197,8 +22782,15 @@
       <c r="Z78" s="1" t="s">
         <v>2011</v>
       </c>
+      <c r="AA78" s="7">
+        <f t="shared" si="1"/>
+        <v>13.28125</v>
+      </c>
+      <c r="AB78">
+        <v>32</v>
+      </c>
     </row>
-    <row r="79" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1112</v>
       </c>
@@ -22277,8 +22869,15 @@
       <c r="Z79" s="1" t="s">
         <v>1114</v>
       </c>
+      <c r="AA79" s="7">
+        <f t="shared" si="1"/>
+        <v>8.2415044539755851</v>
+      </c>
+      <c r="AB79">
+        <v>50.516666666666673</v>
+      </c>
     </row>
-    <row r="80" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1598</v>
       </c>
@@ -22357,8 +22956,15 @@
       <c r="Z80" s="1" t="s">
         <v>1600</v>
       </c>
+      <c r="AA80" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AB80">
+        <v>30.428571428571427</v>
+      </c>
     </row>
-    <row r="81" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1607</v>
       </c>
@@ -22437,8 +23043,15 @@
       <c r="Z81" s="1" t="s">
         <v>1609</v>
       </c>
+      <c r="AA81" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1099053336411915</v>
+      </c>
+      <c r="AB81">
+        <v>43.31</v>
+      </c>
     </row>
-    <row r="82" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2256</v>
       </c>
@@ -22517,8 +23130,15 @@
       <c r="Z82" s="1" t="s">
         <v>2258</v>
       </c>
+      <c r="AA82" s="7">
+        <f t="shared" si="1"/>
+        <v>6.9499294781382224</v>
+      </c>
+      <c r="AB82">
+        <v>28.36</v>
+      </c>
     </row>
-    <row r="83" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1667</v>
       </c>
@@ -22597,8 +23217,15 @@
       <c r="Z83" s="1" t="s">
         <v>1669</v>
       </c>
+      <c r="AA83" s="7">
+        <f t="shared" si="1"/>
+        <v>21.212121212121211</v>
+      </c>
+      <c r="AB83">
+        <v>33</v>
+      </c>
     </row>
-    <row r="84" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1102</v>
       </c>
@@ -22677,8 +23304,15 @@
       <c r="Z84" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="AA84" s="7">
+        <f t="shared" si="1"/>
+        <v>5.949880668257757</v>
+      </c>
+      <c r="AB84">
+        <v>29.33</v>
+      </c>
     </row>
-    <row r="85" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>250</v>
       </c>
@@ -22757,8 +23391,15 @@
       <c r="Z85" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="AA85" s="7">
+        <f t="shared" si="1"/>
+        <v>5.9171496760995579</v>
+      </c>
+      <c r="AB85">
+        <v>29.33</v>
+      </c>
     </row>
-    <row r="86" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>535</v>
       </c>
@@ -22837,8 +23478,15 @@
       <c r="Z86" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="AA86" s="7">
+        <f t="shared" si="1"/>
+        <v>5.9498961578400822</v>
+      </c>
+      <c r="AB86">
+        <v>38.520000000000003</v>
+      </c>
     </row>
-    <row r="87" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1382</v>
       </c>
@@ -22917,8 +23565,15 @@
       <c r="Z87" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AA87" s="7">
+        <f t="shared" si="1"/>
+        <v>15.625</v>
+      </c>
+      <c r="AB87">
+        <v>32</v>
+      </c>
     </row>
-    <row r="88" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>734</v>
       </c>
@@ -22997,8 +23652,15 @@
       <c r="Z88" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="AA88" s="7">
+        <f t="shared" si="1"/>
+        <v>25.558139534883722</v>
+      </c>
+      <c r="AB88">
+        <v>28.666666666666668</v>
+      </c>
     </row>
-    <row r="89" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>130</v>
       </c>
@@ -23077,8 +23739,15 @@
       <c r="Z89" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="AA89" s="7">
+        <f t="shared" si="1"/>
+        <v>26.450980392156861</v>
+      </c>
+      <c r="AB89">
+        <v>25.5</v>
+      </c>
     </row>
-    <row r="90" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>471</v>
       </c>
@@ -23157,8 +23826,15 @@
       <c r="Z90" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="AA90" s="7">
+        <f t="shared" si="1"/>
+        <v>5.9500236294896034</v>
+      </c>
+      <c r="AB90">
+        <v>33.856000000000002</v>
+      </c>
     </row>
-    <row r="91" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -23237,8 +23913,15 @@
       <c r="Z91" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="AA91" s="7">
+        <f t="shared" si="1"/>
+        <v>5.9499842221520982</v>
+      </c>
+      <c r="AB91">
+        <v>31.69</v>
+      </c>
     </row>
-    <row r="92" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>461</v>
       </c>
@@ -23317,8 +24000,15 @@
       <c r="Z92" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="AA92" s="7">
+        <f t="shared" si="1"/>
+        <v>5.9499506903353057</v>
+      </c>
+      <c r="AB92">
+        <v>40.56</v>
+      </c>
     </row>
-    <row r="93" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1012</v>
       </c>
@@ -23397,8 +24087,15 @@
       <c r="Z93" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="AA93" s="7">
+        <f t="shared" si="1"/>
+        <v>5.9498894620486364</v>
+      </c>
+      <c r="AB93">
+        <v>40.71</v>
+      </c>
     </row>
-    <row r="94" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1428</v>
       </c>
@@ -23477,8 +24174,15 @@
       <c r="Z94" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="AA94" s="7">
+        <f t="shared" si="1"/>
+        <v>5.9499091616921875</v>
+      </c>
+      <c r="AB94">
+        <v>38.53</v>
+      </c>
     </row>
-    <row r="95" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>280</v>
       </c>
@@ -23557,8 +24261,15 @@
       <c r="Z95" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="AA95" s="7">
+        <f t="shared" si="1"/>
+        <v>5.9499064643525257</v>
+      </c>
+      <c r="AB95">
+        <v>48.11</v>
+      </c>
     </row>
-    <row r="96" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1417</v>
       </c>
@@ -23637,8 +24348,15 @@
       <c r="Z96" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA96" s="7">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="AB96">
+        <v>25</v>
+      </c>
     </row>
-    <row r="97" spans="1:26" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>885</v>
       </c>
@@ -23717,8 +24435,17 @@
       <c r="Z97" s="1" t="s">
         <v>887</v>
       </c>
+      <c r="AA97" s="7">
+        <f t="shared" si="1"/>
+        <v>11.849829351535837</v>
+      </c>
+      <c r="AB97">
+        <v>26.37</v>
+      </c>
+      <c r="AC97"/>
+      <c r="AD97"/>
     </row>
-    <row r="98" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1463</v>
       </c>
@@ -23797,8 +24524,15 @@
       <c r="Z98" s="1" t="s">
         <v>1465</v>
       </c>
+      <c r="AA98" s="7">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="AB98">
+        <v>33.333333333333336</v>
+      </c>
     </row>
-    <row r="99" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>256</v>
       </c>
@@ -23877,8 +24611,15 @@
       <c r="Z99" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="AA99" s="7">
+        <f t="shared" si="1"/>
+        <v>10.023255813953488</v>
+      </c>
+      <c r="AB99">
+        <v>43</v>
+      </c>
     </row>
-    <row r="100" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1821</v>
       </c>
@@ -23957,8 +24698,15 @@
       <c r="Z100" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="AA100" s="7">
+        <f t="shared" si="1"/>
+        <v>9.4516129032258061</v>
+      </c>
+      <c r="AB100">
+        <v>31</v>
+      </c>
     </row>
-    <row r="101" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1960</v>
       </c>
@@ -24037,8 +24785,15 @@
       <c r="Z101" s="1" t="s">
         <v>1962</v>
       </c>
+      <c r="AA101" s="7">
+        <f t="shared" si="1"/>
+        <v>5.9989177489177479</v>
+      </c>
+      <c r="AB101">
+        <v>46.2</v>
+      </c>
     </row>
-    <row r="102" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>998</v>
       </c>
@@ -24117,8 +24872,15 @@
       <c r="Z102" s="1" t="s">
         <v>1000</v>
       </c>
+      <c r="AA102" s="7">
+        <f t="shared" si="1"/>
+        <v>7.1900329371330374</v>
+      </c>
+      <c r="AB102">
+        <v>34.914999999999999</v>
+      </c>
     </row>
-    <row r="103" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>826</v>
       </c>
@@ -24197,8 +24959,15 @@
       <c r="Z103" s="1" t="s">
         <v>828</v>
       </c>
+      <c r="AA103" s="7">
+        <f t="shared" si="1"/>
+        <v>13.048347955945491</v>
+      </c>
+      <c r="AB103">
+        <v>26.785</v>
+      </c>
     </row>
-    <row r="104" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>512</v>
       </c>
@@ -24277,8 +25046,15 @@
       <c r="Z104" s="6" t="s">
         <v>514</v>
       </c>
+      <c r="AA104" s="7">
+        <f t="shared" si="1"/>
+        <v>6.5495978552278826</v>
+      </c>
+      <c r="AB104">
+        <v>44.76</v>
+      </c>
     </row>
-    <row r="105" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>2324</v>
       </c>
@@ -24357,8 +25133,15 @@
       <c r="Z105" s="1" t="s">
         <v>2326</v>
       </c>
+      <c r="AA105" s="7">
+        <f t="shared" si="1"/>
+        <v>10.897435897435898</v>
+      </c>
+      <c r="AB105">
+        <v>39</v>
+      </c>
     </row>
-    <row r="106" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1191</v>
       </c>
@@ -24437,8 +25220,15 @@
       <c r="Z106" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA106" s="7">
+        <f t="shared" si="1"/>
+        <v>9.7120463452036123</v>
+      </c>
+      <c r="AB106">
+        <v>29.344999999999999</v>
+      </c>
     </row>
-    <row r="107" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1792</v>
       </c>
@@ -24517,8 +25307,15 @@
       <c r="Z107" s="1" t="s">
         <v>1794</v>
       </c>
+      <c r="AA107" s="7">
+        <f t="shared" si="1"/>
+        <v>12.222222222222221</v>
+      </c>
+      <c r="AB107">
+        <v>30</v>
+      </c>
     </row>
-    <row r="108" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1631</v>
       </c>
@@ -24597,8 +25394,15 @@
       <c r="Z108" s="1" t="s">
         <v>828</v>
       </c>
+      <c r="AA108" s="7">
+        <f t="shared" si="1"/>
+        <v>13.450134770889488</v>
+      </c>
+      <c r="AB108">
+        <v>37.1</v>
+      </c>
     </row>
-    <row r="109" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>2181</v>
       </c>
@@ -24677,8 +25481,15 @@
       <c r="Z109" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="AA109" s="7">
+        <f t="shared" si="1"/>
+        <v>11.908256880733944</v>
+      </c>
+      <c r="AB109">
+        <v>18.166666666666668</v>
+      </c>
     </row>
-    <row r="110" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>556</v>
       </c>
@@ -24757,8 +25568,15 @@
       <c r="Z110" s="1" t="s">
         <v>558</v>
       </c>
+      <c r="AA110" s="7">
+        <f t="shared" si="1"/>
+        <v>13.059918557300755</v>
+      </c>
+      <c r="AB110">
+        <v>34.380000000000003</v>
+      </c>
     </row>
-    <row r="111" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>333</v>
       </c>
@@ -24837,8 +25655,15 @@
       <c r="Z111" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="AA111" s="7">
+        <f t="shared" si="1"/>
+        <v>12.58055477724853</v>
+      </c>
+      <c r="AB111">
+        <v>35.69</v>
+      </c>
     </row>
-    <row r="112" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1405</v>
       </c>
@@ -24917,8 +25742,15 @@
       <c r="Z112" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="AA112" s="7">
+        <f t="shared" si="1"/>
+        <v>12.943479324688036</v>
+      </c>
+      <c r="AB112">
+        <v>20.434999999999999</v>
+      </c>
     </row>
-    <row r="113" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>602</v>
       </c>
@@ -24997,8 +25829,15 @@
       <c r="Z113" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="AA113" s="7">
+        <f t="shared" si="1"/>
+        <v>13.059918557300755</v>
+      </c>
+      <c r="AB113">
+        <v>34.380000000000003</v>
+      </c>
     </row>
-    <row r="114" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1089</v>
       </c>
@@ -25077,8 +25916,15 @@
       <c r="Z114" s="1" t="s">
         <v>558</v>
       </c>
+      <c r="AA114" s="7">
+        <f t="shared" si="1"/>
+        <v>13.446510374562113</v>
+      </c>
+      <c r="AB114">
+        <v>37.11</v>
+      </c>
     </row>
-    <row r="115" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>315</v>
       </c>
@@ -25157,8 +26003,15 @@
       <c r="Z115" s="1" t="s">
         <v>318</v>
       </c>
+      <c r="AA115" s="7">
+        <f t="shared" si="1"/>
+        <v>7.2899546945789711</v>
+      </c>
+      <c r="AB115">
+        <v>32.005000000000003</v>
+      </c>
     </row>
-    <row r="116" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1092</v>
       </c>
@@ -25237,8 +26090,15 @@
       <c r="Z116" s="1" t="s">
         <v>1094</v>
       </c>
+      <c r="AA116" s="7">
+        <f t="shared" si="1"/>
+        <v>7.2899365628604382</v>
+      </c>
+      <c r="AB116">
+        <v>23.12</v>
+      </c>
     </row>
-    <row r="117" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>2363</v>
       </c>
@@ -25317,8 +26177,15 @@
       <c r="Z117" s="1" t="s">
         <v>2365</v>
       </c>
+      <c r="AA117" s="7">
+        <f t="shared" si="1"/>
+        <v>9.5199349064279897</v>
+      </c>
+      <c r="AB117">
+        <v>43.015000000000001</v>
+      </c>
     </row>
-    <row r="118" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1711</v>
       </c>
@@ -25397,8 +26264,15 @@
       <c r="Z118" s="1" t="s">
         <v>1713</v>
       </c>
+      <c r="AA118" s="7">
+        <f t="shared" si="1"/>
+        <v>18.440947527580221</v>
+      </c>
+      <c r="AB118">
+        <v>35.713999999999999</v>
+      </c>
     </row>
-    <row r="119" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1024</v>
       </c>
@@ -25477,8 +26351,15 @@
       <c r="Z119" s="1" t="s">
         <v>1026</v>
       </c>
+      <c r="AA119" s="7">
+        <f t="shared" si="1"/>
+        <v>18.199826668317446</v>
+      </c>
+      <c r="AB119">
+        <v>40.384999999999998</v>
+      </c>
     </row>
-    <row r="120" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>2195</v>
       </c>
@@ -25557,8 +26438,15 @@
       <c r="Z120" s="1" t="s">
         <v>2197</v>
       </c>
+      <c r="AA120" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AB120">
+        <v>30.266666666666666</v>
+      </c>
     </row>
-    <row r="121" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>2213</v>
       </c>
@@ -25637,8 +26525,15 @@
       <c r="Z121" s="1" t="s">
         <v>2215</v>
       </c>
+      <c r="AA121" s="7">
+        <f t="shared" si="1"/>
+        <v>10.784313725490197</v>
+      </c>
+      <c r="AB121">
+        <v>25.5</v>
+      </c>
     </row>
-    <row r="122" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1164</v>
       </c>
@@ -25717,8 +26612,15 @@
       <c r="Z122" s="1" t="s">
         <v>1166</v>
       </c>
+      <c r="AA122" s="7">
+        <f t="shared" si="1"/>
+        <v>12.819259440303068</v>
+      </c>
+      <c r="AB122">
+        <v>27.276666666666667</v>
+      </c>
     </row>
-    <row r="123" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1495</v>
       </c>
@@ -25797,8 +26699,15 @@
       <c r="Z123" s="1" t="s">
         <v>1497</v>
       </c>
+      <c r="AA123" s="7">
+        <f t="shared" si="1"/>
+        <v>9.7600351229302564</v>
+      </c>
+      <c r="AB123">
+        <v>26.573333333333334</v>
+      </c>
     </row>
-    <row r="124" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1500</v>
       </c>
@@ -25877,8 +26786,15 @@
       <c r="Z124" s="1" t="s">
         <v>1502</v>
       </c>
+      <c r="AA124" s="7">
+        <f t="shared" si="1"/>
+        <v>13.12539582013933</v>
+      </c>
+      <c r="AB124">
+        <v>31.58</v>
+      </c>
     </row>
-    <row r="125" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1812</v>
       </c>
@@ -25957,8 +26873,15 @@
       <c r="Z125" s="1" t="s">
         <v>1814</v>
       </c>
+      <c r="AA125" s="7">
+        <f t="shared" si="1"/>
+        <v>11.323155216284988</v>
+      </c>
+      <c r="AB125">
+        <v>39.299999999999997</v>
+      </c>
     </row>
-    <row r="126" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1534</v>
       </c>
@@ -26037,8 +26960,15 @@
       <c r="Z126" s="1" t="s">
         <v>1536</v>
       </c>
+      <c r="AA126" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AB126">
+        <v>32.234999999999999</v>
+      </c>
     </row>
-    <row r="127" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1965</v>
       </c>
@@ -26117,8 +27047,15 @@
       <c r="Z127" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA127" s="7">
+        <f t="shared" si="1"/>
+        <v>12.501653657891255</v>
+      </c>
+      <c r="AB127">
+        <v>25.196666666666669</v>
+      </c>
     </row>
-    <row r="128" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>2100</v>
       </c>
@@ -26197,8 +27134,15 @@
       <c r="Z128" s="1" t="s">
         <v>2102</v>
       </c>
+      <c r="AA128" s="7">
+        <f t="shared" si="1"/>
+        <v>10.089900535577659</v>
+      </c>
+      <c r="AB128">
+        <v>34.853333333333332</v>
+      </c>
     </row>
-    <row r="129" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>641</v>
       </c>
@@ -26277,8 +27221,15 @@
       <c r="Z129" s="1" t="s">
         <v>643</v>
       </c>
+      <c r="AA129" s="7">
+        <f t="shared" si="1"/>
+        <v>13.117121848739496</v>
+      </c>
+      <c r="AB129">
+        <v>25.386666666666667</v>
+      </c>
     </row>
-    <row r="130" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>2079</v>
       </c>
@@ -26357,8 +27308,15 @@
       <c r="Z130" s="1" t="s">
         <v>2081</v>
       </c>
+      <c r="AA130" s="7">
+        <f t="shared" si="1"/>
+        <v>13.393195902364994</v>
+      </c>
+      <c r="AB130">
+        <v>26.356666666666666</v>
+      </c>
     </row>
-    <row r="131" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>551</v>
       </c>
@@ -26437,8 +27395,15 @@
       <c r="Z131" s="1" t="s">
         <v>553</v>
       </c>
+      <c r="AA131" s="7">
+        <f t="shared" ref="AA131:AA194" si="2">G131/L131</f>
+        <v>11.071428571428571</v>
+      </c>
+      <c r="AB131">
+        <v>28</v>
+      </c>
     </row>
-    <row r="132" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>2065</v>
       </c>
@@ -26517,8 +27482,15 @@
       <c r="Z132" s="1" t="s">
         <v>1346</v>
       </c>
+      <c r="AA132" s="7">
+        <f t="shared" si="2"/>
+        <v>9.6600021970778869</v>
+      </c>
+      <c r="AB132">
+        <v>30.343333333333334</v>
+      </c>
     </row>
-    <row r="133" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1344</v>
       </c>
@@ -26597,8 +27569,15 @@
       <c r="Z133" s="1" t="s">
         <v>1346</v>
       </c>
+      <c r="AA133" s="7">
+        <f t="shared" si="2"/>
+        <v>9.6600132333480371</v>
+      </c>
+      <c r="AB133">
+        <v>30.22666666666667</v>
+      </c>
     </row>
-    <row r="134" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1917</v>
       </c>
@@ -26677,8 +27656,15 @@
       <c r="Z134" s="1" t="s">
         <v>1919</v>
       </c>
+      <c r="AA134" s="7">
+        <f t="shared" si="2"/>
+        <v>11.463678098838779</v>
+      </c>
+      <c r="AB134">
+        <v>24.686666666666667</v>
+      </c>
     </row>
-    <row r="135" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1457</v>
       </c>
@@ -26757,8 +27743,15 @@
       <c r="Z135" s="1" t="s">
         <v>1459</v>
       </c>
+      <c r="AA135" s="7">
+        <f t="shared" si="2"/>
+        <v>9.9299363057324825</v>
+      </c>
+      <c r="AB135">
+        <v>33.755000000000003</v>
+      </c>
     </row>
-    <row r="136" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1701</v>
       </c>
@@ -26837,8 +27830,15 @@
       <c r="Z136" s="1" t="s">
         <v>1703</v>
       </c>
+      <c r="AA136" s="7">
+        <f t="shared" si="2"/>
+        <v>7.7678887186136985</v>
+      </c>
+      <c r="AB136">
+        <v>21.2075</v>
+      </c>
     </row>
-    <row r="137" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>979</v>
       </c>
@@ -26917,8 +27917,15 @@
       <c r="Z137" s="1" t="s">
         <v>981</v>
       </c>
+      <c r="AA137" s="7">
+        <f t="shared" si="2"/>
+        <v>19.271463119709797</v>
+      </c>
+      <c r="AB137">
+        <v>33.08</v>
+      </c>
     </row>
-    <row r="138" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>864</v>
       </c>
@@ -26997,8 +28004,15 @@
       <c r="Z138" s="1" t="s">
         <v>866</v>
       </c>
+      <c r="AA138" s="7">
+        <f t="shared" si="2"/>
+        <v>12.231952420016407</v>
+      </c>
+      <c r="AB138">
+        <v>24.38</v>
+      </c>
     </row>
-    <row r="139" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>1039</v>
       </c>
@@ -27077,8 +28091,15 @@
       <c r="Z139" s="6" t="s">
         <v>1041</v>
       </c>
+      <c r="AA139" s="7">
+        <f t="shared" si="2"/>
+        <v>9.5755182625863782</v>
+      </c>
+      <c r="AB139">
+        <v>28.363999999999997</v>
+      </c>
     </row>
-    <row r="140" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1133</v>
       </c>
@@ -27157,8 +28178,15 @@
       <c r="Z140" s="1" t="s">
         <v>1041</v>
       </c>
+      <c r="AA140" s="7">
+        <f t="shared" si="2"/>
+        <v>9.2514822134387362</v>
+      </c>
+      <c r="AB140">
+        <v>26.986666666666665</v>
+      </c>
     </row>
-    <row r="141" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1251</v>
       </c>
@@ -27237,8 +28265,15 @@
       <c r="Z141" s="1" t="s">
         <v>1145</v>
       </c>
+      <c r="AA141" s="7">
+        <f t="shared" si="2"/>
+        <v>16.732673267326732</v>
+      </c>
+      <c r="AB141">
+        <v>33.666666666666664</v>
+      </c>
     </row>
-    <row r="142" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>2141</v>
       </c>
@@ -27317,8 +28352,15 @@
       <c r="Z142" s="1" t="s">
         <v>2143</v>
       </c>
+      <c r="AA142" s="7">
+        <f t="shared" si="2"/>
+        <v>16.336633663366335</v>
+      </c>
+      <c r="AB142">
+        <v>33.666666666666664</v>
+      </c>
     </row>
-    <row r="143" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1143</v>
       </c>
@@ -27397,8 +28439,15 @@
       <c r="Z143" s="1" t="s">
         <v>1145</v>
       </c>
+      <c r="AA143" s="7">
+        <f t="shared" si="2"/>
+        <v>15.841584158415841</v>
+      </c>
+      <c r="AB143">
+        <v>33.666666666666664</v>
+      </c>
     </row>
-    <row r="144" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>2369</v>
       </c>
@@ -27477,8 +28526,15 @@
       <c r="Z144" s="1" t="s">
         <v>2371</v>
       </c>
+      <c r="AA144" s="7">
+        <f t="shared" si="2"/>
+        <v>16.455696202531644</v>
+      </c>
+      <c r="AB144">
+        <v>39.5</v>
+      </c>
     </row>
-    <row r="145" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>655</v>
       </c>
@@ -27557,8 +28613,15 @@
       <c r="Z145" s="1" t="s">
         <v>657</v>
       </c>
+      <c r="AA145" s="7">
+        <f t="shared" si="2"/>
+        <v>22.580645161290324</v>
+      </c>
+      <c r="AB145">
+        <v>31</v>
+      </c>
     </row>
-    <row r="146" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>951</v>
       </c>
@@ -27637,8 +28700,15 @@
       <c r="Z146" s="1" t="s">
         <v>953</v>
       </c>
+      <c r="AA146" s="7">
+        <f t="shared" si="2"/>
+        <v>22.033898305084747</v>
+      </c>
+      <c r="AB146">
+        <v>39.333333333333336</v>
+      </c>
     </row>
-    <row r="147" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>2177</v>
       </c>
@@ -27717,8 +28787,15 @@
       <c r="Z147" s="1" t="s">
         <v>657</v>
       </c>
+      <c r="AA147" s="7">
+        <f t="shared" si="2"/>
+        <v>22.302158273381295</v>
+      </c>
+      <c r="AB147">
+        <v>46.333333333333336</v>
+      </c>
     </row>
-    <row r="148" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>670</v>
       </c>
@@ -27797,8 +28874,15 @@
       <c r="Z148" s="1" t="s">
         <v>672</v>
       </c>
+      <c r="AA148" s="7">
+        <f t="shared" si="2"/>
+        <v>15.359477124183007</v>
+      </c>
+      <c r="AB148">
+        <v>76.5</v>
+      </c>
     </row>
-    <row r="149" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1887</v>
       </c>
@@ -27877,8 +28961,21 @@
       <c r="Z149" s="1" t="s">
         <v>1889</v>
       </c>
+      <c r="AA149" s="7">
+        <f t="shared" si="2"/>
+        <v>14.790019960079839</v>
+      </c>
+      <c r="AB149">
+        <v>50.1</v>
+      </c>
+      <c r="AC149" s="8">
+        <v>52.520266419370003</v>
+      </c>
+      <c r="AD149">
+        <v>13.402701869301101</v>
+      </c>
     </row>
-    <row r="150" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>2105</v>
       </c>
@@ -27957,8 +29054,15 @@
       <c r="Z150" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA150" s="7">
+        <f t="shared" si="2"/>
+        <v>14.790019960079839</v>
+      </c>
+      <c r="AB150">
+        <v>50.1</v>
+      </c>
     </row>
-    <row r="151" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1483</v>
       </c>
@@ -28037,8 +29141,21 @@
       <c r="Z151" s="1" t="s">
         <v>1485</v>
       </c>
+      <c r="AA151" s="7">
+        <f t="shared" si="2"/>
+        <v>18.421052631578949</v>
+      </c>
+      <c r="AB151">
+        <v>52.25</v>
+      </c>
+      <c r="AC151">
+        <v>52.515401773179299</v>
+      </c>
+      <c r="AD151">
+        <v>13.393251813477001</v>
+      </c>
     </row>
-    <row r="152" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>2375</v>
       </c>
@@ -28117,8 +29234,15 @@
       <c r="Z152" s="1" t="s">
         <v>2377</v>
       </c>
+      <c r="AA152" s="7">
+        <f t="shared" si="2"/>
+        <v>12.960005754567687</v>
+      </c>
+      <c r="AB152">
+        <v>34.755000000000003</v>
+      </c>
     </row>
-    <row r="153" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1635</v>
       </c>
@@ -28197,8 +29321,15 @@
       <c r="Z153" s="1" t="s">
         <v>1637</v>
       </c>
+      <c r="AA153" s="7">
+        <f t="shared" si="2"/>
+        <v>42.304593070104758</v>
+      </c>
+      <c r="AB153">
+        <v>41.366666666666667</v>
+      </c>
     </row>
-    <row r="154" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>695</v>
       </c>
@@ -28277,8 +29408,15 @@
       <c r="Z154" s="1" t="s">
         <v>697</v>
       </c>
+      <c r="AA154" s="7">
+        <f t="shared" si="2"/>
+        <v>19.5</v>
+      </c>
+      <c r="AB154">
+        <v>58.666666666666664</v>
+      </c>
     </row>
-    <row r="155" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1033</v>
       </c>
@@ -28357,8 +29495,15 @@
       <c r="Z155" s="1" t="s">
         <v>1035</v>
       </c>
+      <c r="AA155" s="7">
+        <f t="shared" si="2"/>
+        <v>24.736842105263158</v>
+      </c>
+      <c r="AB155">
+        <v>31.666666666666668</v>
+      </c>
     </row>
-    <row r="156" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1614</v>
       </c>
@@ -28437,8 +29582,15 @@
       <c r="Z156" s="1" t="s">
         <v>1616</v>
       </c>
+      <c r="AA156" s="7">
+        <f t="shared" si="2"/>
+        <v>19.801980198019802</v>
+      </c>
+      <c r="AB156">
+        <v>40.4</v>
+      </c>
     </row>
-    <row r="157" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1929</v>
       </c>
@@ -28517,8 +29669,21 @@
       <c r="Z157" s="1" t="s">
         <v>1931</v>
       </c>
+      <c r="AA157" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB157" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC157">
+        <v>52.513812606459503</v>
+      </c>
+      <c r="AD157">
+        <v>13.3972874423121</v>
+      </c>
     </row>
-    <row r="158" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>328</v>
       </c>
@@ -28597,8 +29762,15 @@
       <c r="Z158" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA158" s="7">
+        <f t="shared" si="2"/>
+        <v>28.089887640449437</v>
+      </c>
+      <c r="AB158">
+        <v>29.666666666666668</v>
+      </c>
     </row>
-    <row r="159" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1773</v>
       </c>
@@ -28677,8 +29849,21 @@
       <c r="Z159" s="1" t="s">
         <v>1775</v>
       </c>
+      <c r="AA159" s="7">
+        <f t="shared" si="2"/>
+        <v>19.264069264069263</v>
+      </c>
+      <c r="AB159">
+        <v>77</v>
+      </c>
+      <c r="AC159">
+        <v>52.517666069259803</v>
+      </c>
+      <c r="AD159">
+        <v>13.389001769301</v>
+      </c>
     </row>
-    <row r="160" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1880</v>
       </c>
@@ -28757,8 +29942,15 @@
       <c r="Z160" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA160" s="7">
+        <f t="shared" si="2"/>
+        <v>12.4665</v>
+      </c>
+      <c r="AB160">
+        <v>40</v>
+      </c>
     </row>
-    <row r="161" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1842</v>
       </c>
@@ -28837,8 +30029,15 @@
       <c r="Z161" s="1" t="s">
         <v>1844</v>
       </c>
+      <c r="AA161" s="7">
+        <f t="shared" si="2"/>
+        <v>17.866666666666667</v>
+      </c>
+      <c r="AB161">
+        <v>15</v>
+      </c>
     </row>
-    <row r="162" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>309</v>
       </c>
@@ -28917,8 +30116,15 @@
       <c r="Z162" s="1" t="s">
         <v>311</v>
       </c>
+      <c r="AA162" s="7">
+        <f t="shared" si="2"/>
+        <v>11.780024509803923</v>
+      </c>
+      <c r="AB162">
+        <v>27.2</v>
+      </c>
     </row>
-    <row r="163" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>268</v>
       </c>
@@ -28997,8 +30203,15 @@
       <c r="Z163" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="AA163" s="7">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AB163">
+        <v>40.333333333333336</v>
+      </c>
     </row>
-    <row r="164" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1653</v>
       </c>
@@ -29077,8 +30290,15 @@
       <c r="Z164" s="1" t="s">
         <v>1655</v>
       </c>
+      <c r="AA164" s="7">
+        <f t="shared" si="2"/>
+        <v>12.748424624333495</v>
+      </c>
+      <c r="AB164">
+        <v>30.945</v>
+      </c>
     </row>
-    <row r="165" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -29157,8 +30377,15 @@
       <c r="Z165" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="AA165" s="7">
+        <f t="shared" si="2"/>
+        <v>14.849942062572421</v>
+      </c>
+      <c r="AB165">
+        <v>23.013333333333335</v>
+      </c>
     </row>
-    <row r="166" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>724</v>
       </c>
@@ -29237,8 +30464,15 @@
       <c r="Z166" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="AA166" s="7">
+        <f t="shared" si="2"/>
+        <v>15.850029891536426</v>
+      </c>
+      <c r="AB166">
+        <v>39.03</v>
+      </c>
     </row>
-    <row r="167" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>2189</v>
       </c>
@@ -29317,8 +30551,15 @@
       <c r="Z167" s="1" t="s">
         <v>2191</v>
       </c>
+      <c r="AA167" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="AB167">
+        <v>34</v>
+      </c>
     </row>
-    <row r="168" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>506</v>
       </c>
@@ -29397,8 +30638,21 @@
       <c r="Z168" s="1" t="s">
         <v>508</v>
       </c>
+      <c r="AA168" s="7">
+        <f t="shared" si="2"/>
+        <v>26.326923076923077</v>
+      </c>
+      <c r="AB168">
+        <v>26</v>
+      </c>
+      <c r="AC168">
+        <v>52.5314104860432</v>
+      </c>
+      <c r="AD168">
+        <v>13.3819964693015</v>
+      </c>
     </row>
-    <row r="169" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>421</v>
       </c>
@@ -29477,8 +30731,15 @@
       <c r="Z169" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA169" s="7">
+        <f t="shared" si="2"/>
+        <v>30.526315789473685</v>
+      </c>
+      <c r="AB169">
+        <v>19</v>
+      </c>
     </row>
-    <row r="170" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>207</v>
       </c>
@@ -29557,8 +30818,15 @@
       <c r="Z170" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="AA170" s="7">
+        <f t="shared" si="2"/>
+        <v>29.210526315789473</v>
+      </c>
+      <c r="AB170">
+        <v>19</v>
+      </c>
     </row>
-    <row r="171" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>758</v>
       </c>
@@ -29637,8 +30905,15 @@
       <c r="Z171" s="6" t="s">
         <v>760</v>
       </c>
+      <c r="AA171" s="7">
+        <f t="shared" si="2"/>
+        <v>14.799966181941157</v>
+      </c>
+      <c r="AB171">
+        <v>29.57</v>
+      </c>
     </row>
-    <row r="172" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1934</v>
       </c>
@@ -29717,8 +30992,15 @@
       <c r="Z172" s="1" t="s">
         <v>1936</v>
       </c>
+      <c r="AA172" s="7">
+        <f t="shared" si="2"/>
+        <v>12.468801996672214</v>
+      </c>
+      <c r="AB172">
+        <v>32.053333333333335</v>
+      </c>
     </row>
-    <row r="173" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1732</v>
       </c>
@@ -29797,8 +31079,15 @@
       <c r="Z173" s="1" t="s">
         <v>1734</v>
       </c>
+      <c r="AA173" s="7">
+        <f t="shared" si="2"/>
+        <v>16.65674485057745</v>
+      </c>
+      <c r="AB173">
+        <v>27.996666666666666</v>
+      </c>
     </row>
-    <row r="174" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>934</v>
       </c>
@@ -29877,8 +31166,15 @@
       <c r="Z174" s="1" t="s">
         <v>936</v>
       </c>
+      <c r="AA174" s="7">
+        <f t="shared" si="2"/>
+        <v>17.588235294117649</v>
+      </c>
+      <c r="AB174">
+        <v>28.333333333333332</v>
+      </c>
     </row>
-    <row r="175" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>969</v>
       </c>
@@ -29957,8 +31253,15 @@
       <c r="Z175" s="1" t="s">
         <v>971</v>
       </c>
+      <c r="AA175" s="7">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="AB175">
+        <v>25</v>
+      </c>
     </row>
-    <row r="176" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>2218</v>
       </c>
@@ -30037,8 +31340,15 @@
       <c r="Z176" s="1" t="s">
         <v>2220</v>
       </c>
+      <c r="AA176" s="7">
+        <f t="shared" si="2"/>
+        <v>16.620957542908762</v>
+      </c>
+      <c r="AB176">
+        <v>27.675000000000001</v>
+      </c>
     </row>
-    <row r="177" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>303</v>
       </c>
@@ -30117,8 +31427,15 @@
       <c r="Z177" s="1" t="s">
         <v>305</v>
       </c>
+      <c r="AA177" s="7">
+        <f t="shared" si="2"/>
+        <v>14.35999441652708</v>
+      </c>
+      <c r="AB177">
+        <v>35.82</v>
+      </c>
     </row>
-    <row r="178" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1195</v>
       </c>
@@ -30197,8 +31514,15 @@
       <c r="Z178" s="1" t="s">
         <v>760</v>
       </c>
+      <c r="AA178" s="7">
+        <f t="shared" si="2"/>
+        <v>12.789965620971207</v>
+      </c>
+      <c r="AB178">
+        <v>31.026666666666667</v>
+      </c>
     </row>
-    <row r="179" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>369</v>
       </c>
@@ -30277,8 +31601,15 @@
       <c r="Z179" s="1" t="s">
         <v>305</v>
       </c>
+      <c r="AA179" s="7">
+        <f t="shared" si="2"/>
+        <v>16.730083744900149</v>
+      </c>
+      <c r="AB179">
+        <v>46.57</v>
+      </c>
     </row>
-    <row r="180" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1451</v>
       </c>
@@ -30357,8 +31688,15 @@
       <c r="Z180" s="1" t="s">
         <v>1453</v>
       </c>
+      <c r="AA180" s="7">
+        <f t="shared" si="2"/>
+        <v>28.553571428571427</v>
+      </c>
+      <c r="AB180">
+        <v>28</v>
+      </c>
     </row>
-    <row r="181" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1016</v>
       </c>
@@ -30437,8 +31775,15 @@
       <c r="Z181" s="1" t="s">
         <v>305</v>
       </c>
+      <c r="AA181" s="7">
+        <f t="shared" si="2"/>
+        <v>16.310023310023311</v>
+      </c>
+      <c r="AB181">
+        <v>45.76</v>
+      </c>
     </row>
-    <row r="182" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>350</v>
       </c>
@@ -30517,8 +31862,15 @@
       <c r="Z182" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="AA182" s="7">
+        <f t="shared" si="2"/>
+        <v>17.50004864286409</v>
+      </c>
+      <c r="AB182">
+        <v>34.263333333333335</v>
+      </c>
     </row>
-    <row r="183" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>908</v>
       </c>
@@ -30597,8 +31949,15 @@
       <c r="Z183" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA183" s="7">
+        <f t="shared" si="2"/>
+        <v>19.477124183006534</v>
+      </c>
+      <c r="AB183">
+        <v>38.25</v>
+      </c>
     </row>
-    <row r="184" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>963</v>
       </c>
@@ -30677,8 +32036,15 @@
       <c r="Z184" s="1" t="s">
         <v>965</v>
       </c>
+      <c r="AA184" s="7">
+        <f t="shared" si="2"/>
+        <v>30.64516129032258</v>
+      </c>
+      <c r="AB184">
+        <v>93</v>
+      </c>
     </row>
-    <row r="185" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>2146</v>
       </c>
@@ -30757,8 +32123,15 @@
       <c r="Z185" s="1" t="s">
         <v>2148</v>
       </c>
+      <c r="AA185" s="7">
+        <f t="shared" si="2"/>
+        <v>23.566037735849058</v>
+      </c>
+      <c r="AB185">
+        <v>35.333333333333336</v>
+      </c>
     </row>
-    <row r="186" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1751</v>
       </c>
@@ -30837,8 +32210,15 @@
       <c r="Z186" s="1" t="s">
         <v>1753</v>
       </c>
+      <c r="AA186" s="7">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="AB186">
+        <v>25.25</v>
+      </c>
     </row>
-    <row r="187" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>2310</v>
       </c>
@@ -30917,8 +32297,15 @@
       <c r="Z187" s="1" t="s">
         <v>1023</v>
       </c>
+      <c r="AA187" s="7">
+        <f t="shared" si="2"/>
+        <v>17.570276708814365</v>
+      </c>
+      <c r="AB187">
+        <v>27.285</v>
+      </c>
     </row>
-    <row r="188" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>764</v>
       </c>
@@ -30997,8 +32384,15 @@
       <c r="Z188" s="1" t="s">
         <v>766</v>
       </c>
+      <c r="AA188" s="7">
+        <f t="shared" si="2"/>
+        <v>12.319926568758344</v>
+      </c>
+      <c r="AB188">
+        <v>29.96</v>
+      </c>
     </row>
-    <row r="189" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1215</v>
       </c>
@@ -31077,8 +32471,15 @@
       <c r="Z189" s="1" t="s">
         <v>1023</v>
       </c>
+      <c r="AA189" s="7">
+        <f t="shared" si="2"/>
+        <v>16.981509279475983</v>
+      </c>
+      <c r="AB189">
+        <v>36.64</v>
+      </c>
     </row>
-    <row r="190" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1019</v>
       </c>
@@ -31157,8 +32558,15 @@
       <c r="Z190" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA190" s="7">
+        <f t="shared" si="2"/>
+        <v>16.981415021789285</v>
+      </c>
+      <c r="AB190">
+        <v>39.01</v>
+      </c>
     </row>
-    <row r="191" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>373</v>
       </c>
@@ -31237,8 +32645,15 @@
       <c r="Z191" s="1" t="s">
         <v>375</v>
       </c>
+      <c r="AA191" s="7">
+        <f t="shared" si="2"/>
+        <v>19.444444444444443</v>
+      </c>
+      <c r="AB191">
+        <v>36</v>
+      </c>
     </row>
-    <row r="192" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>417</v>
       </c>
@@ -31317,8 +32732,15 @@
       <c r="Z192" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AA192" s="7">
+        <f t="shared" si="2"/>
+        <v>21.998123507335382</v>
+      </c>
+      <c r="AB192">
+        <v>29.31</v>
+      </c>
     </row>
-    <row r="193" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1727</v>
       </c>
@@ -31397,8 +32819,15 @@
       <c r="Z193" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="AA193" s="7">
+        <f t="shared" si="2"/>
+        <v>32.416666666666664</v>
+      </c>
+      <c r="AB193">
+        <v>12</v>
+      </c>
     </row>
-    <row r="194" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1586</v>
       </c>
@@ -31477,8 +32906,15 @@
       <c r="Z194" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="AA194" s="7">
+        <f t="shared" si="2"/>
+        <v>19.862214411247805</v>
+      </c>
+      <c r="AB194">
+        <v>28.45</v>
+      </c>
     </row>
-    <row r="195" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>444</v>
       </c>
@@ -31557,8 +32993,15 @@
       <c r="Z195" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="AA195" s="7">
+        <f t="shared" ref="AA195:AA258" si="3">G195/L195</f>
+        <v>20.031678002422435</v>
+      </c>
+      <c r="AB195">
+        <v>26.8325</v>
+      </c>
     </row>
-    <row r="196" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>2130</v>
       </c>
@@ -31637,8 +33080,15 @@
       <c r="Z196" s="1" t="s">
         <v>2132</v>
       </c>
+      <c r="AA196" s="7">
+        <f t="shared" si="3"/>
+        <v>14.500085309674118</v>
+      </c>
+      <c r="AB196">
+        <v>29.305</v>
+      </c>
     </row>
-    <row r="197" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1529</v>
       </c>
@@ -31717,8 +33167,15 @@
       <c r="Z197" s="1" t="s">
         <v>1531</v>
       </c>
+      <c r="AA197" s="7">
+        <f t="shared" si="3"/>
+        <v>27.417197452229299</v>
+      </c>
+      <c r="AB197">
+        <v>18.84</v>
+      </c>
     </row>
-    <row r="198" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1004</v>
       </c>
@@ -31797,8 +33254,15 @@
       <c r="Z198" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AA198" s="7">
+        <f t="shared" si="3"/>
+        <v>18.048625180897254</v>
+      </c>
+      <c r="AB198">
+        <v>34.549999999999997</v>
+      </c>
     </row>
-    <row r="199" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>854</v>
       </c>
@@ -31877,8 +33341,15 @@
       <c r="Z199" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AA199" s="7">
+        <f t="shared" si="3"/>
+        <v>21.998309772587586</v>
+      </c>
+      <c r="AB199">
+        <v>32.54</v>
+      </c>
     </row>
-    <row r="200" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>57</v>
       </c>
@@ -31957,8 +33428,15 @@
       <c r="Z200" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AA200" s="7">
+        <f t="shared" si="3"/>
+        <v>21.749268496586318</v>
+      </c>
+      <c r="AB200">
+        <v>41.011428571428567</v>
+      </c>
     </row>
-    <row r="201" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>567</v>
       </c>
@@ -32037,8 +33515,15 @@
       <c r="Z201" s="1" t="s">
         <v>569</v>
       </c>
+      <c r="AA201" s="7">
+        <f t="shared" si="3"/>
+        <v>23.231006281853738</v>
+      </c>
+      <c r="AB201">
+        <v>56.24666666666667</v>
+      </c>
     </row>
-    <row r="202" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>151</v>
       </c>
@@ -32117,8 +33602,15 @@
       <c r="Z202" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="AA202" s="7">
+        <f t="shared" si="3"/>
+        <v>27.258206761391477</v>
+      </c>
+      <c r="AB202">
+        <v>20.41</v>
+      </c>
     </row>
-    <row r="203" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>975</v>
       </c>
@@ -32197,8 +33689,15 @@
       <c r="Z203" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AA203" s="7">
+        <f t="shared" si="3"/>
+        <v>18.248917481133244</v>
+      </c>
+      <c r="AB203">
+        <v>40.414999999999999</v>
+      </c>
     </row>
-    <row r="204" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>322</v>
       </c>
@@ -32277,8 +33776,15 @@
       <c r="Z204" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="AA204" s="7">
+        <f t="shared" si="3"/>
+        <v>28.292682926829269</v>
+      </c>
+      <c r="AB204">
+        <v>20.5</v>
+      </c>
     </row>
-    <row r="205" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>385</v>
       </c>
@@ -32357,8 +33863,15 @@
       <c r="Z205" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="AA205" s="7">
+        <f t="shared" si="3"/>
+        <v>26.829268292682926</v>
+      </c>
+      <c r="AB205">
+        <v>20.5</v>
+      </c>
     </row>
-    <row r="206" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1557</v>
       </c>
@@ -32437,8 +33950,15 @@
       <c r="Z206" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="AA206" s="7">
+        <f t="shared" si="3"/>
+        <v>26.829268292682926</v>
+      </c>
+      <c r="AB206">
+        <v>20.5</v>
+      </c>
     </row>
-    <row r="207" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1248</v>
       </c>
@@ -32517,8 +34037,15 @@
       <c r="Z207" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AA207" s="7">
+        <f t="shared" si="3"/>
+        <v>20.749303232998884</v>
+      </c>
+      <c r="AB207">
+        <v>41.005714285714291</v>
+      </c>
     </row>
-    <row r="208" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>2335</v>
       </c>
@@ -32597,8 +34124,15 @@
       <c r="Z208" s="1" t="s">
         <v>2337</v>
       </c>
+      <c r="AA208" s="7">
+        <f t="shared" si="3"/>
+        <v>26.829268292682926</v>
+      </c>
+      <c r="AB208">
+        <v>20.5</v>
+      </c>
     </row>
-    <row r="209" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1479</v>
       </c>
@@ -32677,8 +34211,15 @@
       <c r="Z209" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA209" s="7">
+        <f t="shared" si="3"/>
+        <v>12.744306251009531</v>
+      </c>
+      <c r="AB209">
+        <v>30.954999999999998</v>
+      </c>
     </row>
-    <row r="210" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>957</v>
       </c>
@@ -32757,8 +34298,15 @@
       <c r="Z210" s="1" t="s">
         <v>959</v>
       </c>
+      <c r="AA210" s="7">
+        <f t="shared" si="3"/>
+        <v>23.145604395604394</v>
+      </c>
+      <c r="AB210">
+        <v>29.12</v>
+      </c>
     </row>
-    <row r="211" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1956</v>
       </c>
@@ -32837,8 +34385,15 @@
       <c r="Z211" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA211" s="7">
+        <f t="shared" si="3"/>
+        <v>20.735795454545453</v>
+      </c>
+      <c r="AB211">
+        <v>117.33333333333333</v>
+      </c>
     </row>
-    <row r="212" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>2075</v>
       </c>
@@ -32917,8 +34472,15 @@
       <c r="Z212" s="1" t="s">
         <v>2077</v>
       </c>
+      <c r="AA212" s="7">
+        <f t="shared" si="3"/>
+        <v>11.588300629396519</v>
+      </c>
+      <c r="AB212">
+        <v>27.01</v>
+      </c>
     </row>
-    <row r="213" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>524</v>
       </c>
@@ -32997,8 +34559,15 @@
       <c r="Z213" s="1" t="s">
         <v>526</v>
       </c>
+      <c r="AA213" s="7">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AB213">
+        <v>26.395999999999997</v>
+      </c>
     </row>
-    <row r="214" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>546</v>
       </c>
@@ -33077,8 +34646,15 @@
       <c r="Z214" s="1" t="s">
         <v>548</v>
       </c>
+      <c r="AA214" s="7">
+        <f t="shared" si="3"/>
+        <v>10.960271511279696</v>
+      </c>
+      <c r="AB214">
+        <v>25.045000000000002</v>
+      </c>
     </row>
-    <row r="215" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>363</v>
       </c>
@@ -33157,8 +34733,15 @@
       <c r="Z215" s="1" t="s">
         <v>365</v>
       </c>
+      <c r="AA215" s="7">
+        <f t="shared" si="3"/>
+        <v>18.5</v>
+      </c>
+      <c r="AB215">
+        <v>28.9</v>
+      </c>
     </row>
-    <row r="216" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1317</v>
       </c>
@@ -33237,8 +34820,15 @@
       <c r="Z216" s="1" t="s">
         <v>1319</v>
       </c>
+      <c r="AA216" s="7">
+        <f t="shared" si="3"/>
+        <v>22.517670817906428</v>
+      </c>
+      <c r="AB216">
+        <v>29.71</v>
+      </c>
     </row>
-    <row r="217" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>183</v>
       </c>
@@ -33317,8 +34907,15 @@
       <c r="Z217" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="AA217" s="7">
+        <f t="shared" si="3"/>
+        <v>26.458885941644564</v>
+      </c>
+      <c r="AB217">
+        <v>15.08</v>
+      </c>
     </row>
-    <row r="218" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>814</v>
       </c>
@@ -33397,8 +34994,15 @@
       <c r="Z218" s="1" t="s">
         <v>816</v>
       </c>
+      <c r="AA218" s="7">
+        <f t="shared" si="3"/>
+        <v>24.719764011799413</v>
+      </c>
+      <c r="AB218">
+        <v>16.95</v>
+      </c>
     </row>
-    <row r="219" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1837</v>
       </c>
@@ -33477,8 +35081,15 @@
       <c r="Z219" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="AA219" s="7">
+        <f t="shared" si="3"/>
+        <v>25.9765625</v>
+      </c>
+      <c r="AB219">
+        <v>15.36</v>
+      </c>
     </row>
-    <row r="220" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>475</v>
       </c>
@@ -33557,8 +35168,15 @@
       <c r="Z220" s="1" t="s">
         <v>477</v>
       </c>
+      <c r="AA220" s="7">
+        <f t="shared" si="3"/>
+        <v>15.812222222222223</v>
+      </c>
+      <c r="AB220">
+        <v>18</v>
+      </c>
     </row>
-    <row r="221" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>356</v>
       </c>
@@ -33637,8 +35255,15 @@
       <c r="Z221" s="1" t="s">
         <v>359</v>
       </c>
+      <c r="AA221" s="7">
+        <f t="shared" si="3"/>
+        <v>18.015873015873016</v>
+      </c>
+      <c r="AB221">
+        <v>31.5</v>
+      </c>
     </row>
-    <row r="222" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>450</v>
       </c>
@@ -33717,8 +35342,15 @@
       <c r="Z222" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA222" s="7">
+        <f t="shared" si="3"/>
+        <v>12.770263073809778</v>
+      </c>
+      <c r="AB222">
+        <v>31.296666666666667</v>
+      </c>
     </row>
-    <row r="223" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1898</v>
       </c>
@@ -33797,8 +35429,15 @@
       <c r="Z223" s="1" t="s">
         <v>1064</v>
       </c>
+      <c r="AA223" s="7">
+        <f t="shared" si="3"/>
+        <v>26.582100324792496</v>
+      </c>
+      <c r="AB223">
+        <v>27.71</v>
+      </c>
     </row>
-    <row r="224" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1062</v>
       </c>
@@ -33877,8 +35516,15 @@
       <c r="Z224" s="1" t="s">
         <v>1064</v>
       </c>
+      <c r="AA224" s="7">
+        <f t="shared" si="3"/>
+        <v>33.632706374085686</v>
+      </c>
+      <c r="AB224">
+        <v>19.14</v>
+      </c>
     </row>
-    <row r="225" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1448</v>
       </c>
@@ -33957,8 +35603,15 @@
       <c r="Z225" s="1" t="s">
         <v>1172</v>
       </c>
+      <c r="AA225" s="7">
+        <f t="shared" si="3"/>
+        <v>40.001516070345666</v>
+      </c>
+      <c r="AB225">
+        <v>43.973333333333329</v>
+      </c>
     </row>
-    <row r="226" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1170</v>
       </c>
@@ -34037,8 +35690,15 @@
       <c r="Z226" s="1" t="s">
         <v>1172</v>
       </c>
+      <c r="AA226" s="7">
+        <f t="shared" si="3"/>
+        <v>40.001516070345666</v>
+      </c>
+      <c r="AB226">
+        <v>43.973333333333329</v>
+      </c>
     </row>
-    <row r="227" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1573</v>
       </c>
@@ -34117,8 +35777,15 @@
       <c r="Z227" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA227" s="7">
+        <f t="shared" si="3"/>
+        <v>32.180056154333847</v>
+      </c>
+      <c r="AB227">
+        <v>36.803333333333335</v>
+      </c>
     </row>
-    <row r="228" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2233</v>
       </c>
@@ -34197,8 +35864,15 @@
       <c r="Z228" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA228" s="7">
+        <f t="shared" si="3"/>
+        <v>32.180056154333847</v>
+      </c>
+      <c r="AB228">
+        <v>36.803333333333335</v>
+      </c>
     </row>
-    <row r="229" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>2057</v>
       </c>
@@ -34277,8 +35951,15 @@
       <c r="Z229" s="1" t="s">
         <v>1172</v>
       </c>
+      <c r="AA229" s="7">
+        <f t="shared" si="3"/>
+        <v>40.001516070345666</v>
+      </c>
+      <c r="AB229">
+        <v>43.973333333333329</v>
+      </c>
     </row>
-    <row r="230" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>2085</v>
       </c>
@@ -34357,8 +36038,15 @@
       <c r="Z230" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA230" s="7">
+        <f t="shared" si="3"/>
+        <v>32.180056154333847</v>
+      </c>
+      <c r="AB230">
+        <v>36.803333333333335</v>
+      </c>
     </row>
-    <row r="231" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1423</v>
       </c>
@@ -34437,8 +36125,15 @@
       <c r="Z231" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA231" s="7">
+        <f t="shared" si="3"/>
+        <v>32.180056154333847</v>
+      </c>
+      <c r="AB231">
+        <v>36.803333333333335</v>
+      </c>
     </row>
-    <row r="232" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1908</v>
       </c>
@@ -34517,8 +36212,15 @@
       <c r="Z232" s="1" t="s">
         <v>1172</v>
       </c>
+      <c r="AA232" s="7">
+        <f t="shared" si="3"/>
+        <v>40.001516070345666</v>
+      </c>
+      <c r="AB232">
+        <v>43.973333333333329</v>
+      </c>
     </row>
-    <row r="233" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1260</v>
       </c>
@@ -34597,8 +36299,15 @@
       <c r="Z233" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA233" s="7">
+        <f t="shared" si="3"/>
+        <v>28.361633776961906</v>
+      </c>
+      <c r="AB233">
+        <v>32.685000000000002</v>
+      </c>
     </row>
-    <row r="234" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>755</v>
       </c>
@@ -34677,8 +36386,15 @@
       <c r="Z234" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA234" s="7">
+        <f t="shared" si="3"/>
+        <v>26.079617386411591</v>
+      </c>
+      <c r="AB234">
+        <v>35.545000000000002</v>
+      </c>
     </row>
-    <row r="235" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>2356</v>
       </c>
@@ -34757,8 +36473,15 @@
       <c r="Z235" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA235" s="7">
+        <f t="shared" si="3"/>
+        <v>30.600118835412957</v>
+      </c>
+      <c r="AB235">
+        <v>33.659999999999997</v>
+      </c>
     </row>
-    <row r="236" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1198</v>
       </c>
@@ -34837,8 +36560,15 @@
       <c r="Z236" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA236" s="7">
+        <f t="shared" si="3"/>
+        <v>26.079617386411591</v>
+      </c>
+      <c r="AB236">
+        <v>35.545000000000002</v>
+      </c>
     </row>
-    <row r="237" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1327</v>
       </c>
@@ -34917,8 +36647,15 @@
       <c r="Z237" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA237" s="7">
+        <f t="shared" si="3"/>
+        <v>30.600118835412957</v>
+      </c>
+      <c r="AB237">
+        <v>33.659999999999997</v>
+      </c>
     </row>
-    <row r="238" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1360</v>
       </c>
@@ -34997,8 +36734,15 @@
       <c r="Z238" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA238" s="7">
+        <f t="shared" si="3"/>
+        <v>30.600118835412957</v>
+      </c>
+      <c r="AB238">
+        <v>33.659999999999997</v>
+      </c>
     </row>
-    <row r="239" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>2063</v>
       </c>
@@ -35077,8 +36821,15 @@
       <c r="Z239" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA239" s="7">
+        <f t="shared" si="3"/>
+        <v>30.600118835412957</v>
+      </c>
+      <c r="AB239">
+        <v>33.659999999999997</v>
+      </c>
     </row>
-    <row r="240" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1236</v>
       </c>
@@ -35157,8 +36908,15 @@
       <c r="Z240" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA240" s="7">
+        <f t="shared" si="3"/>
+        <v>30.600118835412957</v>
+      </c>
+      <c r="AB240">
+        <v>33.659999999999997</v>
+      </c>
     </row>
-    <row r="241" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>2088</v>
       </c>
@@ -35237,8 +36995,15 @@
       <c r="Z241" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA241" s="7">
+        <f t="shared" si="3"/>
+        <v>30.600118835412957</v>
+      </c>
+      <c r="AB241">
+        <v>33.659999999999997</v>
+      </c>
     </row>
-    <row r="242" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -35317,8 +37082,15 @@
       <c r="Z242" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA242" s="7">
+        <f t="shared" si="3"/>
+        <v>28.361633776961906</v>
+      </c>
+      <c r="AB242">
+        <v>32.685000000000002</v>
+      </c>
     </row>
-    <row r="243" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1409</v>
       </c>
@@ -35397,8 +37169,15 @@
       <c r="Z243" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA243" s="7">
+        <f t="shared" si="3"/>
+        <v>26.079617386411591</v>
+      </c>
+      <c r="AB243">
+        <v>35.545000000000002</v>
+      </c>
     </row>
-    <row r="244" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1954</v>
       </c>
@@ -35477,8 +37256,15 @@
       <c r="Z244" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA244" s="7">
+        <f t="shared" si="3"/>
+        <v>26.079617386411591</v>
+      </c>
+      <c r="AB244">
+        <v>35.545000000000002</v>
+      </c>
     </row>
-    <row r="245" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1707</v>
       </c>
@@ -35557,8 +37343,15 @@
       <c r="Z245" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA245" s="7">
+        <f t="shared" si="3"/>
+        <v>30.600118835412957</v>
+      </c>
+      <c r="AB245">
+        <v>33.659999999999997</v>
+      </c>
     </row>
-    <row r="246" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>2245</v>
       </c>
@@ -35637,8 +37430,15 @@
       <c r="Z246" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA246" s="7">
+        <f t="shared" si="3"/>
+        <v>26.079617386411591</v>
+      </c>
+      <c r="AB246">
+        <v>35.545000000000002</v>
+      </c>
     </row>
-    <row r="247" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1709</v>
       </c>
@@ -35717,8 +37517,15 @@
       <c r="Z247" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA247" s="7">
+        <f t="shared" si="3"/>
+        <v>28.361633776961906</v>
+      </c>
+      <c r="AB247">
+        <v>32.685000000000002</v>
+      </c>
     </row>
-    <row r="248" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>294</v>
       </c>
@@ -35797,8 +37604,15 @@
       <c r="Z248" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA248" s="7">
+        <f t="shared" si="3"/>
+        <v>26.079617386411591</v>
+      </c>
+      <c r="AB248">
+        <v>35.545000000000002</v>
+      </c>
     </row>
-    <row r="249" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1304</v>
       </c>
@@ -35877,8 +37691,15 @@
       <c r="Z249" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA249" s="7">
+        <f t="shared" si="3"/>
+        <v>26.079617386411591</v>
+      </c>
+      <c r="AB249">
+        <v>35.545000000000002</v>
+      </c>
     </row>
-    <row r="250" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1604</v>
       </c>
@@ -35957,8 +37778,15 @@
       <c r="Z250" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA250" s="7">
+        <f t="shared" si="3"/>
+        <v>26.079617386411591</v>
+      </c>
+      <c r="AB250">
+        <v>35.545000000000002</v>
+      </c>
     </row>
-    <row r="251" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>832</v>
       </c>
@@ -36037,8 +37865,15 @@
       <c r="Z251" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA251" s="7">
+        <f t="shared" si="3"/>
+        <v>26.079617386411591</v>
+      </c>
+      <c r="AB251">
+        <v>35.545000000000002</v>
+      </c>
     </row>
-    <row r="252" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>165</v>
       </c>
@@ -36117,8 +37952,15 @@
       <c r="Z252" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA252" s="7">
+        <f t="shared" si="3"/>
+        <v>26.079617386411591</v>
+      </c>
+      <c r="AB252">
+        <v>35.545000000000002</v>
+      </c>
     </row>
-    <row r="253" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1561</v>
       </c>
@@ -36197,8 +38039,15 @@
       <c r="Z253" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA253" s="7">
+        <f t="shared" si="3"/>
+        <v>28.361633776961906</v>
+      </c>
+      <c r="AB253">
+        <v>32.685000000000002</v>
+      </c>
     </row>
-    <row r="254" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>647</v>
       </c>
@@ -36277,8 +38126,15 @@
       <c r="Z254" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA254" s="7">
+        <f t="shared" si="3"/>
+        <v>26.683937823834196</v>
+      </c>
+      <c r="AB254">
+        <v>25.09</v>
+      </c>
     </row>
-    <row r="255" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1421</v>
       </c>
@@ -36357,8 +38213,15 @@
       <c r="Z255" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA255" s="7">
+        <f t="shared" si="3"/>
+        <v>28.361633776961906</v>
+      </c>
+      <c r="AB255">
+        <v>32.685000000000002</v>
+      </c>
     </row>
-    <row r="256" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1126</v>
       </c>
@@ -36437,8 +38300,15 @@
       <c r="Z256" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA256" s="7">
+        <f t="shared" si="3"/>
+        <v>28.361633776961906</v>
+      </c>
+      <c r="AB256">
+        <v>32.685000000000002</v>
+      </c>
     </row>
-    <row r="257" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>284</v>
       </c>
@@ -36517,8 +38387,15 @@
       <c r="Z257" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA257" s="7">
+        <f t="shared" si="3"/>
+        <v>28.361633776961906</v>
+      </c>
+      <c r="AB257">
+        <v>32.685000000000002</v>
+      </c>
     </row>
-    <row r="258" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>2042</v>
       </c>
@@ -36597,8 +38474,15 @@
       <c r="Z258" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA258" s="7">
+        <f t="shared" si="3"/>
+        <v>26.683937823834196</v>
+      </c>
+      <c r="AB258">
+        <v>25.09</v>
+      </c>
     </row>
-    <row r="259" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1551</v>
       </c>
@@ -36677,8 +38561,15 @@
       <c r="Z259" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AA259" s="7">
+        <f t="shared" ref="AA259:AA322" si="4">G259/L259</f>
+        <v>30.600118835412957</v>
+      </c>
+      <c r="AB259">
+        <v>33.659999999999997</v>
+      </c>
     </row>
-    <row r="260" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>455</v>
       </c>
@@ -36757,8 +38648,15 @@
       <c r="Z260" s="1" t="s">
         <v>457</v>
       </c>
+      <c r="AA260" s="7">
+        <f t="shared" si="4"/>
+        <v>14.069767441860465</v>
+      </c>
+      <c r="AB260">
+        <v>28.666666666666668</v>
+      </c>
     </row>
-    <row r="261" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>782</v>
       </c>
@@ -36837,8 +38735,15 @@
       <c r="Z261" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="AA261" s="7">
+        <f t="shared" si="4"/>
+        <v>39.997961887292369</v>
+      </c>
+      <c r="AB261">
+        <v>39.251999999999995</v>
+      </c>
     </row>
-    <row r="262" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>2096</v>
       </c>
@@ -36917,8 +38822,15 @@
       <c r="Z262" s="1" t="s">
         <v>1064</v>
       </c>
+      <c r="AA262" s="7">
+        <f t="shared" si="4"/>
+        <v>27.9038950042337</v>
+      </c>
+      <c r="AB262">
+        <v>23.62</v>
+      </c>
     </row>
-    <row r="263" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>239</v>
       </c>
@@ -36997,8 +38909,15 @@
       <c r="Z263" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="AA263" s="7">
+        <f t="shared" si="4"/>
+        <v>18.367346938775512</v>
+      </c>
+      <c r="AB263">
+        <v>49</v>
+      </c>
     </row>
-    <row r="264" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>858</v>
       </c>
@@ -37077,8 +38996,15 @@
       <c r="Z264" s="1" t="s">
         <v>860</v>
       </c>
+      <c r="AA264" s="7">
+        <f t="shared" si="4"/>
+        <v>16.226415094339622</v>
+      </c>
+      <c r="AB264">
+        <v>30.285714285714285</v>
+      </c>
     </row>
-    <row r="265" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>728</v>
       </c>
@@ -37157,8 +39083,15 @@
       <c r="Z265" s="1" t="s">
         <v>730</v>
       </c>
+      <c r="AA265" s="7">
+        <f t="shared" si="4"/>
+        <v>29.95</v>
+      </c>
+      <c r="AB265">
+        <v>20</v>
+      </c>
     </row>
-    <row r="266" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1645</v>
       </c>
@@ -37237,8 +39170,15 @@
       <c r="Z266" s="1" t="s">
         <v>1647</v>
       </c>
+      <c r="AA266" s="7">
+        <f t="shared" si="4"/>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="AB266">
+        <v>23.333333333333332</v>
+      </c>
     </row>
-    <row r="267" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1506</v>
       </c>
@@ -37317,8 +39257,15 @@
       <c r="Z267" s="1" t="s">
         <v>1508</v>
       </c>
+      <c r="AA267" s="7">
+        <f t="shared" si="4"/>
+        <v>21.809192455594214</v>
+      </c>
+      <c r="AB267">
+        <v>27.305</v>
+      </c>
     </row>
-    <row r="268" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>2153</v>
       </c>
@@ -37397,8 +39344,15 @@
       <c r="Z268" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA268" s="7">
+        <f t="shared" si="4"/>
+        <v>21.167681239623686</v>
+      </c>
+      <c r="AB268">
+        <v>24.093333333333334</v>
+      </c>
     </row>
-    <row r="269" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1590</v>
       </c>
@@ -37477,8 +39431,15 @@
       <c r="Z269" s="1" t="s">
         <v>1592</v>
       </c>
+      <c r="AA269" s="7">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="AB269">
+        <v>25</v>
+      </c>
     </row>
-    <row r="270" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>848</v>
       </c>
@@ -37557,8 +39518,15 @@
       <c r="Z270" s="1" t="s">
         <v>850</v>
       </c>
+      <c r="AA270" s="7">
+        <f t="shared" si="4"/>
+        <v>22.999221294067677</v>
+      </c>
+      <c r="AB270">
+        <v>35.314999999999998</v>
+      </c>
     </row>
-    <row r="271" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1826</v>
       </c>
@@ -37637,8 +39605,15 @@
       <c r="Z271" s="1" t="s">
         <v>1828</v>
       </c>
+      <c r="AA271" s="7">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="AB271">
+        <v>27.5</v>
+      </c>
     </row>
-    <row r="272" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>2287</v>
       </c>
@@ -37717,8 +39692,15 @@
       <c r="Z272" s="1" t="s">
         <v>2289</v>
       </c>
+      <c r="AA272" s="7">
+        <f t="shared" si="4"/>
+        <v>17.149122807017545</v>
+      </c>
+      <c r="AB272">
+        <v>28.5</v>
+      </c>
     </row>
-    <row r="273" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>922</v>
       </c>
@@ -37797,8 +39779,15 @@
       <c r="Z273" s="1" t="s">
         <v>924</v>
       </c>
+      <c r="AA273" s="7">
+        <f t="shared" si="4"/>
+        <v>44.53846153846154</v>
+      </c>
+      <c r="AB273">
+        <v>13</v>
+      </c>
     </row>
-    <row r="274" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>2059</v>
       </c>
@@ -37877,8 +39866,15 @@
       <c r="Z274" s="1" t="s">
         <v>1226</v>
       </c>
+      <c r="AA274" s="7">
+        <f t="shared" si="4"/>
+        <v>19.008351648351649</v>
+      </c>
+      <c r="AB274">
+        <v>60.666666666666664</v>
+      </c>
     </row>
-    <row r="275" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1224</v>
       </c>
@@ -37957,8 +39953,15 @@
       <c r="Z275" s="1" t="s">
         <v>1226</v>
       </c>
+      <c r="AA275" s="7">
+        <f t="shared" si="4"/>
+        <v>17.966586826347307</v>
+      </c>
+      <c r="AB275">
+        <v>55.666666666666664</v>
+      </c>
     </row>
-    <row r="276" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1241</v>
       </c>
@@ -38037,8 +40040,15 @@
       <c r="Z276" s="1" t="s">
         <v>1226</v>
       </c>
+      <c r="AA276" s="7">
+        <f t="shared" si="4"/>
+        <v>17.987804878048781</v>
+      </c>
+      <c r="AB276">
+        <v>41</v>
+      </c>
     </row>
-    <row r="277" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>78</v>
       </c>
@@ -38117,8 +40127,15 @@
       <c r="Z277" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="AA277" s="7">
+        <f t="shared" si="4"/>
+        <v>28.016359918200411</v>
+      </c>
+      <c r="AB277">
+        <v>19.559999999999999</v>
+      </c>
     </row>
-    <row r="278" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>2330</v>
       </c>
@@ -38197,8 +40214,15 @@
       <c r="Z278" s="1" t="s">
         <v>1356</v>
       </c>
+      <c r="AA278" s="7">
+        <f t="shared" si="4"/>
+        <v>20.529411764705884</v>
+      </c>
+      <c r="AB278">
+        <v>34</v>
+      </c>
     </row>
-    <row r="279" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>493</v>
       </c>
@@ -38277,8 +40301,15 @@
       <c r="Z279" s="1" t="s">
         <v>496</v>
       </c>
+      <c r="AA279" s="7">
+        <f t="shared" si="4"/>
+        <v>17.531948881789138</v>
+      </c>
+      <c r="AB279">
+        <v>31.3</v>
+      </c>
     </row>
-    <row r="280" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>712</v>
       </c>
@@ -38357,8 +40388,15 @@
       <c r="Z280" s="1" t="s">
         <v>714</v>
       </c>
+      <c r="AA280" s="7">
+        <f t="shared" si="4"/>
+        <v>15.994199437004179</v>
+      </c>
+      <c r="AB280">
+        <v>39.076666666666668</v>
+      </c>
     </row>
-    <row r="281" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1354</v>
       </c>
@@ -38437,8 +40475,15 @@
       <c r="Z281" s="1" t="s">
         <v>1356</v>
       </c>
+      <c r="AA281" s="7">
+        <f t="shared" si="4"/>
+        <v>22.983425414364643</v>
+      </c>
+      <c r="AB281">
+        <v>22.625</v>
+      </c>
     </row>
-    <row r="282" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>625</v>
       </c>
@@ -38517,8 +40562,15 @@
       <c r="Z282" s="1" t="s">
         <v>627</v>
       </c>
+      <c r="AA282" s="7">
+        <f t="shared" si="4"/>
+        <v>15.792244253377785</v>
+      </c>
+      <c r="AB282">
+        <v>28.495000000000001</v>
+      </c>
     </row>
-    <row r="283" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>2158</v>
       </c>
@@ -38597,8 +40649,15 @@
       <c r="Z283" s="1" t="s">
         <v>2160</v>
       </c>
+      <c r="AA283" s="7">
+        <f t="shared" si="4"/>
+        <v>18.421052631578949</v>
+      </c>
+      <c r="AB283">
+        <v>38</v>
+      </c>
     </row>
-    <row r="284" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>605</v>
       </c>
@@ -38677,8 +40736,15 @@
       <c r="Z284" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="AA284" s="7">
+        <f t="shared" si="4"/>
+        <v>24.030037546933666</v>
+      </c>
+      <c r="AB284">
+        <v>39.950000000000003</v>
+      </c>
     </row>
-    <row r="285" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>111</v>
       </c>
@@ -38757,8 +40823,15 @@
       <c r="Z285" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="AA285" s="7">
+        <f t="shared" si="4"/>
+        <v>20.303030303030305</v>
+      </c>
+      <c r="AB285">
+        <v>33</v>
+      </c>
     </row>
-    <row r="286" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1367</v>
       </c>
@@ -38837,8 +40910,15 @@
       <c r="Z286" s="1" t="s">
         <v>1369</v>
       </c>
+      <c r="AA286" s="7">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="AB286">
+        <v>37.423333333333332</v>
+      </c>
     </row>
-    <row r="287" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>2261</v>
       </c>
@@ -38917,8 +40997,15 @@
       <c r="Z287" s="1" t="s">
         <v>1369</v>
       </c>
+      <c r="AA287" s="7">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="AB287">
+        <v>40</v>
+      </c>
     </row>
-    <row r="288" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1295</v>
       </c>
@@ -38997,8 +41084,15 @@
       <c r="Z288" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="AA288" s="7">
+        <f t="shared" si="4"/>
+        <v>23.94736842105263</v>
+      </c>
+      <c r="AB288">
+        <v>30.400000000000002</v>
+      </c>
     </row>
-    <row r="289" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1658</v>
       </c>
@@ -39077,8 +41171,15 @@
       <c r="Z289" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="AA289" s="7">
+        <f t="shared" si="4"/>
+        <v>24.030037546933666</v>
+      </c>
+      <c r="AB289">
+        <v>39.950000000000003</v>
+      </c>
     </row>
-    <row r="290" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1200</v>
       </c>
@@ -39157,8 +41258,15 @@
       <c r="Z290" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="AA290" s="7">
+        <f t="shared" si="4"/>
+        <v>23.94736842105263</v>
+      </c>
+      <c r="AB290">
+        <v>30.400000000000002</v>
+      </c>
     </row>
-    <row r="291" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1476</v>
       </c>
@@ -39237,8 +41345,15 @@
       <c r="Z291" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="AA291" s="7">
+        <f t="shared" si="4"/>
+        <v>23.94736842105263</v>
+      </c>
+      <c r="AB291">
+        <v>30.400000000000002</v>
+      </c>
     </row>
-    <row r="292" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1080</v>
       </c>
@@ -39317,8 +41432,15 @@
       <c r="Z292" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="AA292" s="7">
+        <f t="shared" si="4"/>
+        <v>24.030037546933666</v>
+      </c>
+      <c r="AB292">
+        <v>39.950000000000003</v>
+      </c>
     </row>
-    <row r="293" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>233</v>
       </c>
@@ -39397,8 +41519,15 @@
       <c r="Z293" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="AA293" s="7">
+        <f t="shared" si="4"/>
+        <v>24.030037546933666</v>
+      </c>
+      <c r="AB293">
+        <v>39.950000000000003</v>
+      </c>
     </row>
-    <row r="294" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1596</v>
       </c>
@@ -39477,8 +41606,15 @@
       <c r="Z294" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="AA294" s="7">
+        <f t="shared" si="4"/>
+        <v>24.030037546933666</v>
+      </c>
+      <c r="AB294">
+        <v>39.950000000000003</v>
+      </c>
     </row>
-    <row r="295" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1568</v>
       </c>
@@ -39557,8 +41693,15 @@
       <c r="Z295" s="1" t="s">
         <v>703</v>
       </c>
+      <c r="AA295" s="7">
+        <f t="shared" si="4"/>
+        <v>22.429906542056074</v>
+      </c>
+      <c r="AB295">
+        <v>35.666666666666664</v>
+      </c>
     </row>
-    <row r="296" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>2240</v>
       </c>
@@ -39637,8 +41780,15 @@
       <c r="Z296" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="AA296" s="7">
+        <f t="shared" si="4"/>
+        <v>24.175824175824175</v>
+      </c>
+      <c r="AB296">
+        <v>45.5</v>
+      </c>
     </row>
-    <row r="297" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1098</v>
       </c>
@@ -39717,8 +41867,15 @@
       <c r="Z297" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="AA297" s="7">
+        <f t="shared" si="4"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="AB297">
+        <v>42</v>
+      </c>
     </row>
-    <row r="298" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2000</v>
       </c>
@@ -39797,8 +41954,15 @@
       <c r="Z298" s="1" t="s">
         <v>2002</v>
       </c>
+      <c r="AA298" s="7">
+        <f t="shared" si="4"/>
+        <v>25.000000000000004</v>
+      </c>
+      <c r="AB298">
+        <v>27.986666666666665</v>
+      </c>
     </row>
-    <row r="299" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>220</v>
       </c>
@@ -39877,8 +42041,15 @@
       <c r="Z299" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="AA299" s="7">
+        <f t="shared" si="4"/>
+        <v>22.950819672131146</v>
+      </c>
+      <c r="AB299">
+        <v>61</v>
+      </c>
     </row>
-    <row r="300" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>681</v>
       </c>
@@ -39957,8 +42128,15 @@
       <c r="Z300" s="1" t="s">
         <v>683</v>
       </c>
+      <c r="AA300" s="7">
+        <f t="shared" si="4"/>
+        <v>14.000000000000002</v>
+      </c>
+      <c r="AB300">
+        <v>20.5425</v>
+      </c>
     </row>
-    <row r="301" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1140</v>
       </c>
@@ -40037,8 +42215,15 @@
       <c r="Z301" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="AA301" s="7">
+        <f t="shared" si="4"/>
+        <v>30.426220284146854</v>
+      </c>
+      <c r="AB301">
+        <v>35.545000000000002</v>
+      </c>
     </row>
-    <row r="302" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1121</v>
       </c>
@@ -40117,8 +42302,15 @@
       <c r="Z302" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="AA302" s="7">
+        <f t="shared" si="4"/>
+        <v>29.937280097904235</v>
+      </c>
+      <c r="AB302">
+        <v>32.685000000000002</v>
+      </c>
     </row>
-    <row r="303" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1582</v>
       </c>
@@ -40197,8 +42389,15 @@
       <c r="Z303" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="AA303" s="7">
+        <f t="shared" si="4"/>
+        <v>25.766871165644172</v>
+      </c>
+      <c r="AB303">
+        <v>32.6</v>
+      </c>
     </row>
-    <row r="304" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>561</v>
       </c>
@@ -40277,8 +42476,15 @@
       <c r="Z304" s="1" t="s">
         <v>563</v>
       </c>
+      <c r="AA304" s="7">
+        <f t="shared" si="4"/>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="AB304">
+        <v>34</v>
+      </c>
     </row>
-    <row r="305" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1306</v>
       </c>
@@ -40357,8 +42563,15 @@
       <c r="Z305" s="1" t="s">
         <v>1308</v>
       </c>
+      <c r="AA305" s="7">
+        <f t="shared" si="4"/>
+        <v>41.463414634146339</v>
+      </c>
+      <c r="AB305">
+        <v>61.5</v>
+      </c>
     </row>
-    <row r="306" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1884</v>
       </c>
@@ -40437,8 +42650,15 @@
       <c r="Z306" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA306" s="7">
+        <f t="shared" si="4"/>
+        <v>29.545454545454547</v>
+      </c>
+      <c r="AB306">
+        <v>22</v>
+      </c>
     </row>
-    <row r="307" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>701</v>
       </c>
@@ -40517,8 +42737,15 @@
       <c r="Z307" s="1" t="s">
         <v>703</v>
       </c>
+      <c r="AA307" s="7">
+        <f t="shared" si="4"/>
+        <v>17.985611510791365</v>
+      </c>
+      <c r="AB307">
+        <v>34.75</v>
+      </c>
     </row>
-    <row r="308" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1853</v>
       </c>
@@ -40597,8 +42824,15 @@
       <c r="Z308" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="AA308" s="7">
+        <f t="shared" si="4"/>
+        <v>14.548414902787091</v>
+      </c>
+      <c r="AB308">
+        <v>20.881999999999998</v>
+      </c>
     </row>
-    <row r="309" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1540</v>
       </c>
@@ -40677,8 +42911,15 @@
       <c r="Z309" s="1" t="s">
         <v>1542</v>
       </c>
+      <c r="AA309" s="7">
+        <f t="shared" si="4"/>
+        <v>12.700044769437396</v>
+      </c>
+      <c r="AB309">
+        <v>33.505000000000003</v>
+      </c>
     </row>
-    <row r="310" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1185</v>
       </c>
@@ -40757,8 +42998,15 @@
       <c r="Z310" s="1" t="s">
         <v>1187</v>
       </c>
+      <c r="AA310" s="7">
+        <f t="shared" si="4"/>
+        <v>16.161616161616163</v>
+      </c>
+      <c r="AB310">
+        <v>29.7</v>
+      </c>
     </row>
-    <row r="311" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>297</v>
       </c>
@@ -40837,8 +43085,15 @@
       <c r="Z311" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA311" s="7">
+        <f t="shared" si="4"/>
+        <v>21.624907338769457</v>
+      </c>
+      <c r="AB311">
+        <v>67.45</v>
+      </c>
     </row>
-    <row r="312" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>577</v>
       </c>
@@ -40917,8 +43172,15 @@
       <c r="Z312" s="1" t="s">
         <v>579</v>
       </c>
+      <c r="AA312" s="7">
+        <f t="shared" si="4"/>
+        <v>26.566666666666666</v>
+      </c>
+      <c r="AB312">
+        <v>30</v>
+      </c>
     </row>
-    <row r="313" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1160</v>
       </c>
@@ -40997,8 +43259,15 @@
       <c r="Z313" s="1" t="s">
         <v>413</v>
       </c>
+      <c r="AA313" s="7">
+        <f t="shared" si="4"/>
+        <v>17.367332873880084</v>
+      </c>
+      <c r="AB313">
+        <v>29.02</v>
+      </c>
     </row>
-    <row r="314" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>2281</v>
       </c>
@@ -41077,8 +43346,15 @@
       <c r="Z314" s="1" t="s">
         <v>413</v>
       </c>
+      <c r="AA314" s="7">
+        <f t="shared" si="4"/>
+        <v>18.384180790960453</v>
+      </c>
+      <c r="AB314">
+        <v>29.5</v>
+      </c>
     </row>
-    <row r="315" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1322</v>
       </c>
@@ -41157,8 +43433,15 @@
       <c r="Z315" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA315" s="7">
+        <f t="shared" si="4"/>
+        <v>24.805102763997166</v>
+      </c>
+      <c r="AB315">
+        <v>28.22</v>
+      </c>
     </row>
-    <row r="316" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1944</v>
       </c>
@@ -41237,8 +43520,15 @@
       <c r="Z316" s="1" t="s">
         <v>1946</v>
       </c>
+      <c r="AA316" s="7">
+        <f t="shared" si="4"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="AB316">
+        <v>26.25</v>
+      </c>
     </row>
-    <row r="317" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1282</v>
       </c>
@@ -41317,8 +43607,15 @@
       <c r="Z317" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA317" s="7">
+        <f t="shared" si="4"/>
+        <v>26.698630136986303</v>
+      </c>
+      <c r="AB317">
+        <v>24.333333333333332</v>
+      </c>
     </row>
-    <row r="318" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>661</v>
       </c>
@@ -41397,8 +43694,15 @@
       <c r="Z318" s="1" t="s">
         <v>663</v>
       </c>
+      <c r="AA318" s="7">
+        <f t="shared" si="4"/>
+        <v>26.5</v>
+      </c>
+      <c r="AB318">
+        <v>33.333333333333336</v>
+      </c>
     </row>
-    <row r="319" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>583</v>
       </c>
@@ -41477,8 +43781,15 @@
       <c r="Z319" s="1" t="s">
         <v>585</v>
       </c>
+      <c r="AA319" s="7">
+        <f t="shared" si="4"/>
+        <v>15.400000000000002</v>
+      </c>
+      <c r="AB319">
+        <v>23.82</v>
+      </c>
     </row>
-    <row r="320" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1106</v>
       </c>
@@ -41557,8 +43868,15 @@
       <c r="Z320" s="1" t="s">
         <v>1108</v>
       </c>
+      <c r="AA320" s="7">
+        <f t="shared" si="4"/>
+        <v>16.306122448979593</v>
+      </c>
+      <c r="AB320">
+        <v>49</v>
+      </c>
     </row>
-    <row r="321" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>427</v>
       </c>
@@ -41637,8 +43955,15 @@
       <c r="Z321" s="1" t="s">
         <v>429</v>
       </c>
+      <c r="AA321" s="7">
+        <f t="shared" si="4"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="AB321">
+        <v>27</v>
+      </c>
     </row>
-    <row r="322" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1784</v>
       </c>
@@ -41717,8 +44042,15 @@
       <c r="Z322" s="1" t="s">
         <v>1786</v>
       </c>
+      <c r="AA322" s="7">
+        <f t="shared" si="4"/>
+        <v>19.753086419753089</v>
+      </c>
+      <c r="AB322">
+        <v>32.4</v>
+      </c>
     </row>
-    <row r="323" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1902</v>
       </c>
@@ -41797,8 +44129,15 @@
       <c r="Z323" s="1" t="s">
         <v>1904</v>
       </c>
+      <c r="AA323" s="7">
+        <f t="shared" ref="AA323:AA386" si="5">G323/L323</f>
+        <v>9.911952949316726</v>
+      </c>
+      <c r="AB323">
+        <v>28.905000000000001</v>
+      </c>
     </row>
-    <row r="324" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>985</v>
       </c>
@@ -41877,8 +44216,15 @@
       <c r="Z324" s="1" t="s">
         <v>987</v>
       </c>
+      <c r="AA324" s="7">
+        <f t="shared" si="5"/>
+        <v>17.673048600883654</v>
+      </c>
+      <c r="AB324">
+        <v>42.4375</v>
+      </c>
     </row>
-    <row r="325" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1278</v>
       </c>
@@ -41957,8 +44303,15 @@
       <c r="Z325" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="AA325" s="7">
+        <f t="shared" si="5"/>
+        <v>28.624844204403821</v>
+      </c>
+      <c r="AB325">
+        <v>24.07</v>
+      </c>
     </row>
-    <row r="326" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -42037,8 +44390,15 @@
       <c r="Z326" s="1" t="s">
         <v>346</v>
       </c>
+      <c r="AA326" s="7">
+        <f t="shared" si="5"/>
+        <v>21.000000000000004</v>
+      </c>
+      <c r="AB326">
+        <v>27.2</v>
+      </c>
     </row>
-    <row r="327" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>652</v>
       </c>
@@ -42117,8 +44477,15 @@
       <c r="Z327" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="AA327" s="7">
+        <f t="shared" si="5"/>
+        <v>30.827740492170019</v>
+      </c>
+      <c r="AB327">
+        <v>22.35</v>
+      </c>
     </row>
-    <row r="328" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>425</v>
       </c>
@@ -42197,8 +44564,15 @@
       <c r="Z328" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="AA328" s="7">
+        <f t="shared" si="5"/>
+        <v>30.827740492170019</v>
+      </c>
+      <c r="AB328">
+        <v>22.35</v>
+      </c>
     </row>
-    <row r="329" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>189</v>
       </c>
@@ -42277,8 +44651,15 @@
       <c r="Z329" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="AA329" s="7">
+        <f t="shared" si="5"/>
+        <v>30.827740492170019</v>
+      </c>
+      <c r="AB329">
+        <v>22.35</v>
+      </c>
     </row>
-    <row r="330" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1969</v>
       </c>
@@ -42357,8 +44738,15 @@
       <c r="Z330" s="1" t="s">
         <v>1663</v>
       </c>
+      <c r="AA330" s="7">
+        <f t="shared" si="5"/>
+        <v>24.151919866444072</v>
+      </c>
+      <c r="AB330">
+        <v>23.96</v>
+      </c>
     </row>
-    <row r="331" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>897</v>
       </c>
@@ -42437,8 +44825,15 @@
       <c r="Z331" s="1" t="s">
         <v>899</v>
       </c>
+      <c r="AA331" s="7">
+        <f t="shared" si="5"/>
+        <v>22.907666666666668</v>
+      </c>
+      <c r="AB331">
+        <v>30</v>
+      </c>
     </row>
-    <row r="332" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>2020</v>
       </c>
@@ -42517,8 +44912,15 @@
       <c r="Z332" s="1" t="s">
         <v>899</v>
       </c>
+      <c r="AA332" s="7">
+        <f t="shared" si="5"/>
+        <v>16.422197183098593</v>
+      </c>
+      <c r="AB332">
+        <v>44.375</v>
+      </c>
     </row>
-    <row r="333" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>2115</v>
       </c>
@@ -42597,8 +44999,15 @@
       <c r="Z333" s="1" t="s">
         <v>2117</v>
       </c>
+      <c r="AA333" s="7">
+        <f t="shared" si="5"/>
+        <v>14.511873350923484</v>
+      </c>
+      <c r="AB333">
+        <v>25.266666666666666</v>
+      </c>
     </row>
-    <row r="334" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>820</v>
       </c>
@@ -42677,8 +45086,15 @@
       <c r="Z334" s="1" t="s">
         <v>822</v>
       </c>
+      <c r="AA334" s="7">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="AB334">
+        <v>24.58</v>
+      </c>
     </row>
-    <row r="335" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>98</v>
       </c>
@@ -42757,8 +45173,15 @@
       <c r="Z335" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AA335" s="7">
+        <f t="shared" si="5"/>
+        <v>34.019607843137258</v>
+      </c>
+      <c r="AB335">
+        <v>25.5</v>
+      </c>
     </row>
-    <row r="336" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1030</v>
       </c>
@@ -42837,8 +45260,15 @@
       <c r="Z336" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AA336" s="7">
+        <f t="shared" si="5"/>
+        <v>34.019607843137258</v>
+      </c>
+      <c r="AB336">
+        <v>25.5</v>
+      </c>
     </row>
-    <row r="337" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>177</v>
       </c>
@@ -42917,8 +45347,15 @@
       <c r="Z337" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="AA337" s="7">
+        <f t="shared" si="5"/>
+        <v>14.55930359085963</v>
+      </c>
+      <c r="AB337">
+        <v>30.633333333333336</v>
+      </c>
     </row>
-    <row r="338" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1866</v>
       </c>
@@ -42997,8 +45434,15 @@
       <c r="Z338" s="1" t="s">
         <v>1300</v>
       </c>
+      <c r="AA338" s="7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="AB338">
+        <v>29</v>
+      </c>
     </row>
-    <row r="339" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>400</v>
       </c>
@@ -43077,8 +45521,15 @@
       <c r="Z339" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="AA339" s="7">
+        <f t="shared" si="5"/>
+        <v>9.4600267976775338</v>
+      </c>
+      <c r="AB339">
+        <v>44.78</v>
+      </c>
     </row>
-    <row r="340" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>840</v>
       </c>
@@ -43157,8 +45608,15 @@
       <c r="Z340" s="1" t="s">
         <v>502</v>
       </c>
+      <c r="AA340" s="7">
+        <f t="shared" si="5"/>
+        <v>16.5</v>
+      </c>
+      <c r="AB340">
+        <v>28</v>
+      </c>
     </row>
-    <row r="341" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1051</v>
       </c>
@@ -43237,8 +45695,15 @@
       <c r="Z341" s="1" t="s">
         <v>502</v>
       </c>
+      <c r="AA341" s="7">
+        <f t="shared" si="5"/>
+        <v>16.5</v>
+      </c>
+      <c r="AB341">
+        <v>27</v>
+      </c>
     </row>
-    <row r="342" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>718</v>
       </c>
@@ -43317,8 +45782,15 @@
       <c r="Z342" s="1" t="s">
         <v>720</v>
       </c>
+      <c r="AA342" s="7">
+        <f t="shared" si="5"/>
+        <v>24.202898550724637</v>
+      </c>
+      <c r="AB342">
+        <v>23</v>
+      </c>
     </row>
-    <row r="343" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1385</v>
       </c>
@@ -43397,8 +45869,15 @@
       <c r="Z343" s="1" t="s">
         <v>598</v>
       </c>
+      <c r="AA343" s="7">
+        <f t="shared" si="5"/>
+        <v>15.178571428571429</v>
+      </c>
+      <c r="AB343">
+        <v>28</v>
+      </c>
     </row>
-    <row r="344" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1677</v>
       </c>
@@ -43477,8 +45956,15 @@
       <c r="Z344" s="1" t="s">
         <v>413</v>
       </c>
+      <c r="AA344" s="7">
+        <f t="shared" si="5"/>
+        <v>17.93548387096774</v>
+      </c>
+      <c r="AB344">
+        <v>28.416666666666668</v>
+      </c>
     </row>
-    <row r="345" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1129</v>
       </c>
@@ -43557,8 +46043,15 @@
       <c r="Z345" s="1" t="s">
         <v>413</v>
       </c>
+      <c r="AA345" s="7">
+        <f t="shared" si="5"/>
+        <v>18.504132231404959</v>
+      </c>
+      <c r="AB345">
+        <v>30.25</v>
+      </c>
     </row>
-    <row r="346" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>635</v>
       </c>
@@ -43637,8 +46130,15 @@
       <c r="Z346" s="1" t="s">
         <v>502</v>
       </c>
+      <c r="AA346" s="7">
+        <f t="shared" si="5"/>
+        <v>16.507407407407406</v>
+      </c>
+      <c r="AB346">
+        <v>27</v>
+      </c>
     </row>
-    <row r="347" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1298</v>
       </c>
@@ -43717,8 +46217,15 @@
       <c r="Z347" s="1" t="s">
         <v>1300</v>
       </c>
+      <c r="AA347" s="7">
+        <f t="shared" si="5"/>
+        <v>15.483870967741936</v>
+      </c>
+      <c r="AB347">
+        <v>31</v>
+      </c>
     </row>
-    <row r="348" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1661</v>
       </c>
@@ -43797,8 +46304,15 @@
       <c r="Z348" s="1" t="s">
         <v>1663</v>
       </c>
+      <c r="AA348" s="7">
+        <f t="shared" si="5"/>
+        <v>24.799900818249441</v>
+      </c>
+      <c r="AB348">
+        <v>40.33</v>
+      </c>
     </row>
-    <row r="349" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>2201</v>
       </c>
@@ -43877,8 +46391,15 @@
       <c r="Z349" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AA349" s="7">
+        <f t="shared" si="5"/>
+        <v>34.019607843137258</v>
+      </c>
+      <c r="AB349">
+        <v>25.5</v>
+      </c>
     </row>
-    <row r="350" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1350</v>
       </c>
@@ -43957,8 +46478,15 @@
       <c r="Z350" s="1" t="s">
         <v>413</v>
       </c>
+      <c r="AA350" s="7">
+        <f t="shared" si="5"/>
+        <v>19.870083928695294</v>
+      </c>
+      <c r="AB350">
+        <v>36.042499999999997</v>
+      </c>
     </row>
-    <row r="351" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1832</v>
       </c>
@@ -44037,8 +46565,15 @@
       <c r="Z351" s="1" t="s">
         <v>1834</v>
       </c>
+      <c r="AA351" s="7">
+        <f t="shared" si="5"/>
+        <v>12.998154981549817</v>
+      </c>
+      <c r="AB351">
+        <v>31.315555555555552</v>
+      </c>
     </row>
-    <row r="352" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>2052</v>
       </c>
@@ -44117,8 +46652,15 @@
       <c r="Z352" s="1" t="s">
         <v>2054</v>
       </c>
+      <c r="AA352" s="7">
+        <f t="shared" si="5"/>
+        <v>17.029917422498983</v>
+      </c>
+      <c r="AB352">
+        <v>36.935000000000002</v>
+      </c>
     </row>
-    <row r="353" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>2046</v>
       </c>
@@ -44197,8 +46739,15 @@
       <c r="Z353" s="1" t="s">
         <v>2048</v>
       </c>
+      <c r="AA353" s="7">
+        <f t="shared" si="5"/>
+        <v>13.501805054151625</v>
+      </c>
+      <c r="AB353">
+        <v>24.237500000000001</v>
+      </c>
     </row>
-    <row r="354" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>2236</v>
       </c>
@@ -44277,8 +46826,15 @@
       <c r="Z354" s="1" t="s">
         <v>502</v>
       </c>
+      <c r="AA354" s="7">
+        <f t="shared" si="5"/>
+        <v>16.507407407407406</v>
+      </c>
+      <c r="AB354">
+        <v>27</v>
+      </c>
     </row>
-    <row r="355" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1808</v>
       </c>
@@ -44357,8 +46913,15 @@
       <c r="Z355" s="1" t="s">
         <v>502</v>
       </c>
+      <c r="AA355" s="7">
+        <f t="shared" si="5"/>
+        <v>16.5</v>
+      </c>
+      <c r="AB355">
+        <v>24.666666666666668</v>
+      </c>
     </row>
-    <row r="356" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1362</v>
       </c>
@@ -44437,8 +47000,15 @@
       <c r="Z356" s="1" t="e">
         <v>#NAME?</v>
       </c>
+      <c r="AA356" s="7">
+        <f t="shared" si="5"/>
+        <v>28.919026725169527</v>
+      </c>
+      <c r="AB356">
+        <v>25.07</v>
+      </c>
     </row>
-    <row r="357" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>2340</v>
       </c>
@@ -44517,8 +47087,15 @@
       <c r="Z357" s="1" t="s">
         <v>1397</v>
       </c>
+      <c r="AA357" s="7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="AB357">
+        <v>41.44</v>
+      </c>
     </row>
-    <row r="358" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>500</v>
       </c>
@@ -44597,8 +47174,15 @@
       <c r="Z358" s="1" t="s">
         <v>502</v>
       </c>
+      <c r="AA358" s="7">
+        <f t="shared" si="5"/>
+        <v>16.5</v>
+      </c>
+      <c r="AB358">
+        <v>24.666666666666668</v>
+      </c>
     </row>
-    <row r="359" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1373</v>
       </c>
@@ -44677,8 +47261,15 @@
       <c r="Z359" s="1" t="s">
         <v>1375</v>
       </c>
+      <c r="AA359" s="7">
+        <f t="shared" si="5"/>
+        <v>17.891891891891891</v>
+      </c>
+      <c r="AB359">
+        <v>24.666666666666668</v>
+      </c>
     </row>
-    <row r="360" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>2253</v>
       </c>
@@ -44757,8 +47348,15 @@
       <c r="Z360" s="1" t="s">
         <v>413</v>
       </c>
+      <c r="AA360" s="7">
+        <f t="shared" si="5"/>
+        <v>19.295799198187208</v>
+      </c>
+      <c r="AB360">
+        <v>38.246666666666663</v>
+      </c>
     </row>
-    <row r="361" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>786</v>
       </c>
@@ -44837,8 +47435,15 @@
       <c r="Z361" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="AA361" s="7">
+        <f t="shared" si="5"/>
+        <v>23.485477178423235</v>
+      </c>
+      <c r="AB361">
+        <v>24.1</v>
+      </c>
     </row>
-    <row r="362" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>2186</v>
       </c>
@@ -44917,8 +47522,15 @@
       <c r="Z362" s="1" t="s">
         <v>413</v>
       </c>
+      <c r="AA362" s="7">
+        <f t="shared" si="5"/>
+        <v>19.523068213982452</v>
+      </c>
+      <c r="AB362">
+        <v>35.33</v>
+      </c>
     </row>
-    <row r="363" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1083</v>
       </c>
@@ -44997,8 +47609,15 @@
       <c r="Z363" s="1" t="s">
         <v>1085</v>
       </c>
+      <c r="AA363" s="7">
+        <f t="shared" si="5"/>
+        <v>29.008063003937746</v>
+      </c>
+      <c r="AB363">
+        <v>26.664999999999999</v>
+      </c>
     </row>
-    <row r="364" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1154</v>
       </c>
@@ -45077,8 +47696,15 @@
       <c r="Z364" s="1" t="s">
         <v>1156</v>
       </c>
+      <c r="AA364" s="7">
+        <f t="shared" si="5"/>
+        <v>6.5</v>
+      </c>
+      <c r="AB364">
+        <v>28.37</v>
+      </c>
     </row>
-    <row r="365" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1395</v>
       </c>
@@ -45157,8 +47783,15 @@
       <c r="Z365" s="1" t="s">
         <v>1397</v>
       </c>
+      <c r="AA365" s="7">
+        <f t="shared" si="5"/>
+        <v>14.000000000000002</v>
+      </c>
+      <c r="AB365">
+        <v>30.939999999999998</v>
+      </c>
     </row>
-    <row r="366" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>144</v>
       </c>
@@ -45237,8 +47870,15 @@
       <c r="Z366" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="AA366" s="7">
+        <f t="shared" si="5"/>
+        <v>19.700027762354246</v>
+      </c>
+      <c r="AB366">
+        <v>36.020000000000003</v>
+      </c>
     </row>
-    <row r="367" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1117</v>
       </c>
@@ -45317,8 +47957,15 @@
       <c r="Z367" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="AA367" s="7">
+        <f t="shared" si="5"/>
+        <v>20.200025480952988</v>
+      </c>
+      <c r="AB367">
+        <v>39.244999999999997</v>
+      </c>
     </row>
-    <row r="368" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1737</v>
       </c>
@@ -45397,8 +48044,15 @@
       <c r="Z368" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AA368" s="7">
+        <f t="shared" si="5"/>
+        <v>29.62970588235294</v>
+      </c>
+      <c r="AB368">
+        <v>34</v>
+      </c>
     </row>
-    <row r="369" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>913</v>
       </c>
@@ -45477,8 +48131,15 @@
       <c r="Z369" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AA369" s="7">
+        <f t="shared" si="5"/>
+        <v>28.945625</v>
+      </c>
+      <c r="AB369">
+        <v>32</v>
+      </c>
     </row>
-    <row r="370" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1273</v>
       </c>
@@ -45557,8 +48218,15 @@
       <c r="Z370" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AA370" s="7">
+        <f t="shared" si="5"/>
+        <v>31.039200000000001</v>
+      </c>
+      <c r="AB370">
+        <v>25</v>
+      </c>
     </row>
-    <row r="371" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>389</v>
       </c>
@@ -45637,8 +48305,15 @@
       <c r="Z371" s="1" t="s">
         <v>391</v>
       </c>
+      <c r="AA371" s="7">
+        <f t="shared" si="5"/>
+        <v>28.8</v>
+      </c>
+      <c r="AB371">
+        <v>23.45</v>
+      </c>
     </row>
-    <row r="372" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>411</v>
       </c>
@@ -45717,8 +48392,15 @@
       <c r="Z372" s="1" t="s">
         <v>413</v>
       </c>
+      <c r="AA372" s="7">
+        <f t="shared" si="5"/>
+        <v>17.93388429752066</v>
+      </c>
+      <c r="AB372">
+        <v>30.25</v>
+      </c>
     </row>
-    <row r="373" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1285</v>
       </c>
@@ -45797,8 +48479,15 @@
       <c r="Z373" s="1" t="s">
         <v>1287</v>
       </c>
+      <c r="AA373" s="7">
+        <f t="shared" si="5"/>
+        <v>16.5</v>
+      </c>
+      <c r="AB373">
+        <v>28</v>
+      </c>
     </row>
-    <row r="374" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>195</v>
       </c>
@@ -45877,8 +48566,15 @@
       <c r="Z374" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="AA374" s="7">
+        <f t="shared" si="5"/>
+        <v>16.614583333333332</v>
+      </c>
+      <c r="AB374">
+        <v>32</v>
+      </c>
     </row>
-    <row r="375" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>2006</v>
       </c>
@@ -45957,8 +48653,15 @@
       <c r="Z375" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="AA375" s="7">
+        <f t="shared" si="5"/>
+        <v>11.192660550458715</v>
+      </c>
+      <c r="AB375">
+        <v>36.333333333333336</v>
+      </c>
     </row>
-    <row r="376" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1950</v>
       </c>
@@ -46037,8 +48740,15 @@
       <c r="Z376" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="AA376" s="7">
+        <f t="shared" si="5"/>
+        <v>11.856389578163771</v>
+      </c>
+      <c r="AB376">
+        <v>25.792000000000002</v>
+      </c>
     </row>
-    <row r="377" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>2265</v>
       </c>
@@ -46117,8 +48827,15 @@
       <c r="Z377" s="1" t="s">
         <v>2267</v>
       </c>
+      <c r="AA377" s="7">
+        <f t="shared" si="5"/>
+        <v>16.501513900357832</v>
+      </c>
+      <c r="AB377">
+        <v>24.22</v>
+      </c>
     </row>
-    <row r="378" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>596</v>
       </c>
@@ -46197,8 +48914,15 @@
       <c r="Z378" s="1" t="s">
         <v>598</v>
       </c>
+      <c r="AA378" s="7">
+        <f t="shared" si="5"/>
+        <v>14.049586776859504</v>
+      </c>
+      <c r="AB378">
+        <v>30.25</v>
+      </c>
     </row>
-    <row r="379" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1989</v>
       </c>
@@ -46277,8 +49001,15 @@
       <c r="Z379" s="1" t="s">
         <v>1991</v>
       </c>
+      <c r="AA379" s="7">
+        <f t="shared" si="5"/>
+        <v>18.644747393744989</v>
+      </c>
+      <c r="AB379">
+        <v>37.409999999999997</v>
+      </c>
     </row>
-    <row r="380" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1181</v>
       </c>
@@ -46357,8 +49088,15 @@
       <c r="Z380" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="AA380" s="7">
+        <f t="shared" si="5"/>
+        <v>16.280400572246066</v>
+      </c>
+      <c r="AB380">
+        <v>34.950000000000003</v>
+      </c>
     </row>
-    <row r="381" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1817</v>
       </c>
@@ -46437,8 +49175,15 @@
       <c r="Z381" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="AA381" s="7">
+        <f t="shared" si="5"/>
+        <v>14.188400155702608</v>
+      </c>
+      <c r="AB381">
+        <v>34.253333333333337</v>
+      </c>
     </row>
-    <row r="382" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1857</v>
       </c>
@@ -46517,8 +49262,15 @@
       <c r="Z382" s="1" t="s">
         <v>598</v>
       </c>
+      <c r="AA382" s="7">
+        <f t="shared" si="5"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="AB382">
+        <v>28</v>
+      </c>
     </row>
-    <row r="383" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>26</v>
       </c>
@@ -46597,8 +49349,15 @@
       <c r="Z383" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AA383" s="7">
+        <f t="shared" si="5"/>
+        <v>27.251492343628342</v>
+      </c>
+      <c r="AB383">
+        <v>25.686666666666667</v>
+      </c>
     </row>
-    <row r="384" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>2350</v>
       </c>
@@ -46677,8 +49436,15 @@
       <c r="Z384" s="1" t="s">
         <v>2352</v>
       </c>
+      <c r="AA384" s="7">
+        <f t="shared" si="5"/>
+        <v>27.826086956521738</v>
+      </c>
+      <c r="AB384">
+        <v>23</v>
+      </c>
     </row>
-    <row r="385" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>2174</v>
       </c>
@@ -46757,8 +49523,15 @@
       <c r="Z385" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="AA385" s="7">
+        <f t="shared" si="5"/>
+        <v>11.445783132530121</v>
+      </c>
+      <c r="AB385">
+        <v>27.666666666666668</v>
+      </c>
     </row>
-    <row r="386" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1412</v>
       </c>
@@ -46837,8 +49610,15 @@
       <c r="Z386" s="1" t="s">
         <v>1414</v>
       </c>
+      <c r="AA386" s="7">
+        <f t="shared" si="5"/>
+        <v>6.5000865800865801</v>
+      </c>
+      <c r="AB386">
+        <v>28.875</v>
+      </c>
     </row>
-    <row r="387" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>118</v>
       </c>
@@ -46917,8 +49697,15 @@
       <c r="Z387" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="AA387" s="7">
+        <f t="shared" ref="AA387:AA450" si="6">G387/L387</f>
+        <v>11.975903614457831</v>
+      </c>
+      <c r="AB387">
+        <v>27.666666666666668</v>
+      </c>
     </row>
-    <row r="388" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>2204</v>
       </c>
@@ -46997,8 +49784,15 @@
       <c r="Z388" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="AA388" s="7">
+        <f t="shared" si="6"/>
+        <v>11.321428571428571</v>
+      </c>
+      <c r="AB388">
+        <v>28</v>
+      </c>
     </row>
-    <row r="389" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>201</v>
       </c>
@@ -47077,8 +49871,15 @@
       <c r="Z389" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="AA389" s="7">
+        <f t="shared" si="6"/>
+        <v>15.199772061217844</v>
+      </c>
+      <c r="AB389">
+        <v>30.71</v>
+      </c>
     </row>
-    <row r="390" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>2135</v>
       </c>
@@ -47157,8 +49958,15 @@
       <c r="Z390" s="1" t="s">
         <v>2137</v>
       </c>
+      <c r="AA390" s="7">
+        <f t="shared" si="6"/>
+        <v>24.962014326025614</v>
+      </c>
+      <c r="AB390">
+        <v>23.035</v>
+      </c>
     </row>
-    <row r="391" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>2151</v>
       </c>
@@ -47237,8 +50045,15 @@
       <c r="Z391" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AA391" s="7">
+        <f t="shared" si="6"/>
+        <v>20.16835016835017</v>
+      </c>
+      <c r="AB391">
+        <v>29.7</v>
+      </c>
     </row>
-    <row r="392" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1642</v>
       </c>
@@ -47317,8 +50132,15 @@
       <c r="Z392" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AA392" s="7">
+        <f t="shared" si="6"/>
+        <v>21.851851851851851</v>
+      </c>
+      <c r="AB392">
+        <v>29.7</v>
+      </c>
     </row>
-    <row r="393" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>433</v>
       </c>
@@ -47397,8 +50219,15 @@
       <c r="Z393" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AA393" s="7">
+        <f t="shared" si="6"/>
+        <v>20.16835016835017</v>
+      </c>
+      <c r="AB393">
+        <v>29.7</v>
+      </c>
     </row>
-    <row r="394" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1554</v>
       </c>
@@ -47477,8 +50306,15 @@
       <c r="Z394" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AA394" s="7">
+        <f t="shared" si="6"/>
+        <v>21.851851851851851</v>
+      </c>
+      <c r="AB394">
+        <v>29.7</v>
+      </c>
     </row>
-    <row r="395" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>2229</v>
       </c>
@@ -47557,8 +50393,15 @@
       <c r="Z395" s="1" t="s">
         <v>1313</v>
       </c>
+      <c r="AA395" s="7">
+        <f t="shared" si="6"/>
+        <v>25.375285216764741</v>
+      </c>
+      <c r="AB395">
+        <v>27.756666666666664</v>
+      </c>
     </row>
-    <row r="396" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1756</v>
       </c>
@@ -47637,8 +50480,15 @@
       <c r="Z396" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AA396" s="7">
+        <f t="shared" si="6"/>
+        <v>19.31547619047619</v>
+      </c>
+      <c r="AB396">
+        <v>33.6</v>
+      </c>
     </row>
-    <row r="397" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>71</v>
       </c>
@@ -47717,8 +50567,15 @@
       <c r="Z397" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="AA397" s="7">
+        <f t="shared" si="6"/>
+        <v>16.500069223314412</v>
+      </c>
+      <c r="AB397">
+        <v>24.076666666666668</v>
+      </c>
     </row>
-    <row r="398" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1337</v>
       </c>
@@ -47797,8 +50654,15 @@
       <c r="Z398" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AA398" s="7">
+        <f t="shared" si="6"/>
+        <v>18.08421052631579</v>
+      </c>
+      <c r="AB398">
+        <v>47.5</v>
+      </c>
     </row>
-    <row r="399" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1311</v>
       </c>
@@ -47877,8 +50741,15 @@
       <c r="Z399" s="1" t="s">
         <v>1313</v>
       </c>
+      <c r="AA399" s="7">
+        <f t="shared" si="6"/>
+        <v>26.985350809560522</v>
+      </c>
+      <c r="AB399">
+        <v>25.94</v>
+      </c>
     </row>
-    <row r="400" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1378</v>
       </c>
@@ -47957,8 +50828,15 @@
       <c r="Z400" s="1" t="s">
         <v>1313</v>
       </c>
+      <c r="AA400" s="7">
+        <f t="shared" si="6"/>
+        <v>26.712095400340715</v>
+      </c>
+      <c r="AB400">
+        <v>23.48</v>
+      </c>
     </row>
-    <row r="401" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1268</v>
       </c>
@@ -48037,8 +50915,15 @@
       <c r="Z401" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AA401" s="7">
+        <f t="shared" si="6"/>
+        <v>18.08421052631579</v>
+      </c>
+      <c r="AB401">
+        <v>47.5</v>
+      </c>
     </row>
-    <row r="402" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>91</v>
       </c>
@@ -48117,8 +51002,15 @@
       <c r="Z402" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="AA402" s="7">
+        <f t="shared" si="6"/>
+        <v>22.933333333333334</v>
+      </c>
+      <c r="AB402">
+        <v>25</v>
+      </c>
     </row>
-    <row r="403" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1204</v>
       </c>
@@ -48197,8 +51089,15 @@
       <c r="Z403" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="AA403" s="7">
+        <f t="shared" si="6"/>
+        <v>13.485165794066319</v>
+      </c>
+      <c r="AB403">
+        <v>27.217500000000001</v>
+      </c>
     </row>
-    <row r="404" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1275</v>
       </c>
@@ -48277,8 +51176,15 @@
       <c r="Z404" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="AA404" s="7">
+        <f t="shared" si="6"/>
+        <v>18.5</v>
+      </c>
+      <c r="AB404">
+        <v>24.59</v>
+      </c>
     </row>
-    <row r="405" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1673</v>
       </c>
@@ -48357,8 +51263,15 @@
       <c r="Z405" s="1" t="s">
         <v>836</v>
       </c>
+      <c r="AA405" s="7">
+        <f t="shared" si="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="AB405">
+        <v>39.28</v>
+      </c>
     </row>
-    <row r="406" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1798</v>
       </c>
@@ -48437,8 +51350,15 @@
       <c r="Z406" s="1" t="s">
         <v>1800</v>
       </c>
+      <c r="AA406" s="7">
+        <f t="shared" si="6"/>
+        <v>21.531219512195122</v>
+      </c>
+      <c r="AB406">
+        <v>30.75</v>
+      </c>
     </row>
-    <row r="407" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>2169</v>
       </c>
@@ -48517,8 +51437,15 @@
       <c r="Z407" s="1" t="s">
         <v>2171</v>
       </c>
+      <c r="AA407" s="7">
+        <f t="shared" si="6"/>
+        <v>23.500094037991349</v>
+      </c>
+      <c r="AB407">
+        <v>35.446666666666665</v>
+      </c>
     </row>
-    <row r="408" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1339</v>
       </c>
@@ -48597,8 +51524,15 @@
       <c r="Z408" s="1" t="s">
         <v>1341</v>
       </c>
+      <c r="AA408" s="7">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AB408">
+        <v>30</v>
+      </c>
     </row>
-    <row r="409" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>379</v>
       </c>
@@ -48677,8 +51611,15 @@
       <c r="Z409" s="1" t="s">
         <v>381</v>
       </c>
+      <c r="AA409" s="7">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AB409">
+        <v>34</v>
+      </c>
     </row>
-    <row r="410" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1923</v>
       </c>
@@ -48757,8 +51698,15 @@
       <c r="Z410" s="1" t="s">
         <v>1925</v>
       </c>
+      <c r="AA410" s="7">
+        <f t="shared" si="6"/>
+        <v>23.584905660377359</v>
+      </c>
+      <c r="AB410">
+        <v>26.5</v>
+      </c>
     </row>
-    <row r="411" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>487</v>
       </c>
@@ -48837,8 +51785,15 @@
       <c r="Z411" s="1" t="s">
         <v>489</v>
       </c>
+      <c r="AA411" s="7">
+        <f t="shared" si="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="AB411">
+        <v>28</v>
+      </c>
     </row>
-    <row r="412" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>738</v>
       </c>
@@ -48917,8 +51872,15 @@
       <c r="Z412" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="AA412" s="7">
+        <f t="shared" si="6"/>
+        <v>16.288562965103679</v>
+      </c>
+      <c r="AB412">
+        <v>27.681999999999999</v>
+      </c>
     </row>
-    <row r="413" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>394</v>
       </c>
@@ -48997,8 +51959,15 @@
       <c r="Z413" s="1" t="s">
         <v>396</v>
       </c>
+      <c r="AA413" s="7">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="AB413">
+        <v>18.559999999999999</v>
+      </c>
     </row>
-    <row r="414" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>615</v>
       </c>
@@ -49077,8 +52046,15 @@
       <c r="Z414" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="AA414" s="7">
+        <f t="shared" si="6"/>
+        <v>18.003341687552215</v>
+      </c>
+      <c r="AB414">
+        <v>47.879999999999995</v>
+      </c>
     </row>
-    <row r="415" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>213</v>
       </c>
@@ -49157,8 +52133,15 @@
       <c r="Z415" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="AA415" s="7">
+        <f t="shared" si="6"/>
+        <v>19.995478693342378</v>
+      </c>
+      <c r="AB415">
+        <v>35.387999999999998</v>
+      </c>
     </row>
-    <row r="416" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>917</v>
       </c>
@@ -49237,8 +52220,15 @@
       <c r="Z416" s="1" t="s">
         <v>919</v>
       </c>
+      <c r="AA416" s="7">
+        <f t="shared" si="6"/>
+        <v>18.390401961642876</v>
+      </c>
+      <c r="AB416">
+        <v>38.063333333333333</v>
+      </c>
     </row>
-    <row r="417" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1244</v>
       </c>
@@ -49317,8 +52307,15 @@
       <c r="Z417" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="AA417" s="7">
+        <f t="shared" si="6"/>
+        <v>19.003642039542143</v>
+      </c>
+      <c r="AB417">
+        <v>38.44</v>
+      </c>
     </row>
-    <row r="418" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1939</v>
       </c>
@@ -49397,8 +52394,15 @@
       <c r="Z418" s="1" t="s">
         <v>1085</v>
       </c>
+      <c r="AA418" s="7">
+        <f t="shared" si="6"/>
+        <v>28.951939779965258</v>
+      </c>
+      <c r="AB418">
+        <v>25.905000000000001</v>
+      </c>
     </row>
-    <row r="419" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1612</v>
       </c>
@@ -49477,8 +52481,15 @@
       <c r="Z419" s="1" t="s">
         <v>941</v>
       </c>
+      <c r="AA419" s="7">
+        <f t="shared" si="6"/>
+        <v>26.315789473684209</v>
+      </c>
+      <c r="AB419">
+        <v>25.333333333333332</v>
+      </c>
     </row>
-    <row r="420" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1717</v>
       </c>
@@ -49557,8 +52568,15 @@
       <c r="Z420" s="1" t="s">
         <v>381</v>
       </c>
+      <c r="AA420" s="7">
+        <f t="shared" si="6"/>
+        <v>20.006779661016949</v>
+      </c>
+      <c r="AB420">
+        <v>29.5</v>
+      </c>
     </row>
-    <row r="421" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1291</v>
       </c>
@@ -49637,8 +52655,15 @@
       <c r="Z421" s="1" t="s">
         <v>941</v>
       </c>
+      <c r="AA421" s="7">
+        <f t="shared" si="6"/>
+        <v>26.804123711340207</v>
+      </c>
+      <c r="AB421">
+        <v>24.25</v>
+      </c>
     </row>
-    <row r="422" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1518</v>
       </c>
@@ -49717,8 +52742,15 @@
       <c r="Z422" s="1" t="s">
         <v>1520</v>
       </c>
+      <c r="AA422" s="7">
+        <f t="shared" si="6"/>
+        <v>25.510876730388926</v>
+      </c>
+      <c r="AB422">
+        <v>30.34</v>
+      </c>
     </row>
-    <row r="423" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>939</v>
       </c>
@@ -49797,8 +52829,15 @@
       <c r="Z423" s="1" t="s">
         <v>941</v>
       </c>
+      <c r="AA423" s="7">
+        <f t="shared" si="6"/>
+        <v>24.21875</v>
+      </c>
+      <c r="AB423">
+        <v>32</v>
+      </c>
     </row>
-    <row r="424" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>667</v>
       </c>
@@ -49877,8 +52916,15 @@
       <c r="Z424" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="AA424" s="7">
+        <f t="shared" si="6"/>
+        <v>10.917431192660551</v>
+      </c>
+      <c r="AB424">
+        <v>36.333333333333336</v>
+      </c>
     </row>
-    <row r="425" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1401</v>
       </c>
@@ -49957,8 +53003,15 @@
       <c r="Z425" s="1" t="s">
         <v>836</v>
       </c>
+      <c r="AA425" s="7">
+        <f t="shared" si="6"/>
+        <v>6.5001091464745677</v>
+      </c>
+      <c r="AB425">
+        <v>45.81</v>
+      </c>
     </row>
-    <row r="426" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>834</v>
       </c>
@@ -50037,8 +53090,15 @@
       <c r="Z426" s="1" t="s">
         <v>836</v>
       </c>
+      <c r="AA426" s="7">
+        <f t="shared" si="6"/>
+        <v>10.100043975373792</v>
+      </c>
+      <c r="AB426">
+        <v>22.74</v>
+      </c>
     </row>
-    <row r="427" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1176</v>
       </c>
@@ -50117,8 +53177,15 @@
       <c r="Z427" s="1" t="s">
         <v>1178</v>
       </c>
+      <c r="AA427" s="7">
+        <f t="shared" si="6"/>
+        <v>24.881916329284749</v>
+      </c>
+      <c r="AB427">
+        <v>67.748571428571424</v>
+      </c>
     </row>
-    <row r="428" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>2090</v>
       </c>
@@ -50197,8 +53264,15 @@
       <c r="Z428" s="1" t="s">
         <v>2092</v>
       </c>
+      <c r="AA428" s="7">
+        <f t="shared" si="6"/>
+        <v>20.136690647482013</v>
+      </c>
+      <c r="AB428">
+        <v>34.75</v>
+      </c>
     </row>
-    <row r="429" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>790</v>
       </c>
@@ -50277,8 +53351,15 @@
       <c r="Z429" s="1" t="s">
         <v>792</v>
       </c>
+      <c r="AA429" s="7">
+        <f t="shared" si="6"/>
+        <v>19.116501613441638</v>
+      </c>
+      <c r="AB429">
+        <v>22.467500000000001</v>
+      </c>
     </row>
-    <row r="430" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1782</v>
       </c>
@@ -50357,8 +53438,15 @@
       <c r="Z430" s="1" t="s">
         <v>792</v>
       </c>
+      <c r="AA430" s="7">
+        <f t="shared" si="6"/>
+        <v>18.746524743823972</v>
+      </c>
+      <c r="AB430">
+        <v>25.178000000000001</v>
+      </c>
     </row>
-    <row r="431" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>845</v>
       </c>
@@ -50437,8 +53525,15 @@
       <c r="Z431" s="1" t="s">
         <v>792</v>
       </c>
+      <c r="AA431" s="7">
+        <f t="shared" si="6"/>
+        <v>18.104991763947577</v>
+      </c>
+      <c r="AB431">
+        <v>23.271666666666665</v>
+      </c>
     </row>
-    <row r="432" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1253</v>
       </c>
@@ -50517,8 +53612,15 @@
       <c r="Z432" s="1" t="s">
         <v>1255</v>
       </c>
+      <c r="AA432" s="7">
+        <f t="shared" si="6"/>
+        <v>6.4</v>
+      </c>
+      <c r="AB432">
+        <v>31.25</v>
+      </c>
     </row>
-    <row r="433" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>2276</v>
       </c>
@@ -50597,8 +53699,15 @@
       <c r="Z433" s="1" t="s">
         <v>2278</v>
       </c>
+      <c r="AA433" s="7">
+        <f t="shared" si="6"/>
+        <v>6.9879310344827585</v>
+      </c>
+      <c r="AB433">
+        <v>29</v>
+      </c>
     </row>
-    <row r="434" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>619</v>
       </c>
@@ -50677,8 +53786,15 @@
       <c r="Z434" s="1" t="s">
         <v>621</v>
       </c>
+      <c r="AA434" s="7">
+        <f t="shared" si="6"/>
+        <v>56.25</v>
+      </c>
+      <c r="AB434">
+        <v>16</v>
+      </c>
     </row>
-    <row r="435" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>879</v>
       </c>
@@ -50757,8 +53873,15 @@
       <c r="Z435" s="1" t="s">
         <v>881</v>
       </c>
+      <c r="AA435" s="7">
+        <f t="shared" si="6"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AB435">
+        <v>36.666666666666664</v>
+      </c>
     </row>
-    <row r="436" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>2207</v>
       </c>
@@ -50837,8 +53960,15 @@
       <c r="Z436" s="1" t="s">
         <v>2209</v>
       </c>
+      <c r="AA436" s="7">
+        <f t="shared" si="6"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="AB436">
+        <v>30</v>
+      </c>
     </row>
-    <row r="437" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1230</v>
       </c>
@@ -50917,8 +54047,15 @@
       <c r="Z437" s="1" t="s">
         <v>1232</v>
       </c>
+      <c r="AA437" s="7">
+        <f t="shared" si="6"/>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="AB437">
+        <v>45</v>
+      </c>
     </row>
-    <row r="438" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>2284</v>
       </c>
@@ -50997,8 +54134,15 @@
       <c r="Z438" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="AA438" s="7">
+        <f t="shared" si="6"/>
+        <v>16.749963077831932</v>
+      </c>
+      <c r="AB438">
+        <v>33.854999999999997</v>
+      </c>
     </row>
-    <row r="439" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1210</v>
       </c>
@@ -51077,8 +54221,15 @@
       <c r="Z439" s="1" t="s">
         <v>1212</v>
       </c>
+      <c r="AA439" s="7">
+        <f t="shared" si="6"/>
+        <v>27.243125904486252</v>
+      </c>
+      <c r="AB439">
+        <v>27.64</v>
+      </c>
     </row>
-    <row r="440" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>481</v>
       </c>
@@ -51157,8 +54308,15 @@
       <c r="Z440" s="1" t="s">
         <v>483</v>
       </c>
+      <c r="AA440" s="7">
+        <f t="shared" si="6"/>
+        <v>17.761194029850746</v>
+      </c>
+      <c r="AB440">
+        <v>33.5</v>
+      </c>
     </row>
-    <row r="441" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1330</v>
       </c>
@@ -51237,8 +54395,15 @@
       <c r="Z441" s="1" t="s">
         <v>1332</v>
       </c>
+      <c r="AA441" s="7">
+        <f t="shared" si="6"/>
+        <v>22.413793103448278</v>
+      </c>
+      <c r="AB441">
+        <v>29</v>
+      </c>
     </row>
-    <row r="442" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>439</v>
       </c>
@@ -51317,8 +54482,15 @@
       <c r="Z442" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA442" s="7">
+        <f t="shared" si="6"/>
+        <v>9.5121951219512191</v>
+      </c>
+      <c r="AB442">
+        <v>27.333333333333332</v>
+      </c>
     </row>
-    <row r="443" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>518</v>
       </c>
@@ -51397,8 +54569,15 @@
       <c r="Z443" s="1" t="s">
         <v>520</v>
       </c>
+      <c r="AA443" s="7">
+        <f t="shared" si="6"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="AB443">
+        <v>26</v>
+      </c>
     </row>
-    <row r="444" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>2314</v>
       </c>
@@ -51477,8 +54656,15 @@
       <c r="Z444" s="1" t="s">
         <v>2316</v>
       </c>
+      <c r="AA444" s="7">
+        <f t="shared" si="6"/>
+        <v>10.213438735177865</v>
+      </c>
+      <c r="AB444">
+        <v>31.625</v>
+      </c>
     </row>
-    <row r="445" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1779</v>
       </c>
@@ -51557,8 +54743,15 @@
       <c r="Z445" s="1" t="s">
         <v>792</v>
       </c>
+      <c r="AA445" s="7">
+        <f t="shared" si="6"/>
+        <v>18.706104808211776</v>
+      </c>
+      <c r="AB445">
+        <v>24.680000000000003</v>
+      </c>
     </row>
-    <row r="446" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1911</v>
       </c>
@@ -51637,8 +54830,15 @@
       <c r="Z446" s="1" t="s">
         <v>1913</v>
       </c>
+      <c r="AA446" s="7">
+        <f t="shared" si="6"/>
+        <v>16.5</v>
+      </c>
+      <c r="AB446">
+        <v>40</v>
+      </c>
     </row>
-    <row r="447" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1563</v>
       </c>
@@ -51717,8 +54917,15 @@
       <c r="Z447" s="1" t="s">
         <v>1565</v>
       </c>
+      <c r="AA447" s="7">
+        <f t="shared" si="6"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AB447">
+        <v>26</v>
+      </c>
     </row>
-    <row r="448" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>770</v>
       </c>
@@ -51797,8 +55004,15 @@
       <c r="Z448" s="1" t="s">
         <v>772</v>
       </c>
+      <c r="AA448" s="7">
+        <f t="shared" si="6"/>
+        <v>8.1208149309018385</v>
+      </c>
+      <c r="AB448">
+        <v>35.094999999999999</v>
+      </c>
     </row>
-    <row r="449" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>2015</v>
       </c>
@@ -51877,8 +55091,15 @@
       <c r="Z449" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA449" s="7">
+        <f t="shared" si="6"/>
+        <v>18.863636363636363</v>
+      </c>
+      <c r="AB449">
+        <v>22</v>
+      </c>
     </row>
-    <row r="450" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1056</v>
       </c>
@@ -51957,8 +55178,15 @@
       <c r="Z450" s="1" t="s">
         <v>1058</v>
       </c>
+      <c r="AA450" s="7">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AB450">
+        <v>25</v>
+      </c>
     </row>
-    <row r="451" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1472</v>
       </c>
@@ -52037,8 +55265,15 @@
       <c r="Z451" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA451" s="7">
+        <f t="shared" ref="AA451:AA475" si="7">G451/L451</f>
+        <v>23.423423423423422</v>
+      </c>
+      <c r="AB451">
+        <v>27.75</v>
+      </c>
     </row>
-    <row r="452" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>226</v>
       </c>
@@ -52117,8 +55352,15 @@
       <c r="Z452" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="AA452" s="7">
+        <f t="shared" si="7"/>
+        <v>22.413793103448278</v>
+      </c>
+      <c r="AB452">
+        <v>29</v>
+      </c>
     </row>
-    <row r="453" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>2247</v>
       </c>
@@ -52197,8 +55439,15 @@
       <c r="Z453" s="1" t="s">
         <v>2249</v>
       </c>
+      <c r="AA453" s="7">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="AB453">
+        <v>26.407999999999998</v>
+      </c>
     </row>
-    <row r="454" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>869</v>
       </c>
@@ -52277,8 +55526,15 @@
       <c r="Z454" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="AA454" s="7">
+        <f t="shared" si="7"/>
+        <v>19.192307692307693</v>
+      </c>
+      <c r="AB454">
+        <v>52</v>
+      </c>
     </row>
-    <row r="455" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1576</v>
       </c>
@@ -52357,8 +55613,15 @@
       <c r="Z455" s="1" t="s">
         <v>1578</v>
       </c>
+      <c r="AA455" s="7">
+        <f t="shared" si="7"/>
+        <v>18.307692307692307</v>
+      </c>
+      <c r="AB455">
+        <v>65</v>
+      </c>
     </row>
-    <row r="456" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>105</v>
       </c>
@@ -52437,8 +55700,15 @@
       <c r="Z456" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="AA456" s="7">
+        <f t="shared" si="7"/>
+        <v>26.174863387978142</v>
+      </c>
+      <c r="AB456">
+        <v>18.3</v>
+      </c>
     </row>
-    <row r="457" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>2163</v>
       </c>
@@ -52517,8 +55787,15 @@
       <c r="Z457" s="1" t="s">
         <v>2165</v>
       </c>
+      <c r="AA457" s="7">
+        <f t="shared" si="7"/>
+        <v>15.588888888888889</v>
+      </c>
+      <c r="AB457">
+        <v>30</v>
+      </c>
     </row>
-    <row r="458" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1873</v>
       </c>
@@ -52597,8 +55874,15 @@
       <c r="Z458" s="1" t="s">
         <v>1875</v>
       </c>
+      <c r="AA458" s="7">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="AB458">
+        <v>38.475000000000001</v>
+      </c>
     </row>
-    <row r="459" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>1690</v>
       </c>
@@ -52677,8 +55961,15 @@
       <c r="Z459" s="1" t="s">
         <v>1692</v>
       </c>
+      <c r="AA459" s="7">
+        <f t="shared" si="7"/>
+        <v>14.996730957829357</v>
+      </c>
+      <c r="AB459">
+        <v>61.18</v>
+      </c>
     </row>
-    <row r="460" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>573</v>
       </c>
@@ -52757,8 +56048,15 @@
       <c r="Z460" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA460" s="7">
+        <f t="shared" si="7"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="AB460" t="e">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="461" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>42</v>
       </c>
@@ -52837,8 +56135,15 @@
       <c r="Z461" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA461" s="7">
+        <f t="shared" si="7"/>
+        <v>21.958717610891526</v>
+      </c>
+      <c r="AB461">
+        <v>45.54</v>
+      </c>
     </row>
-    <row r="462" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>891</v>
       </c>
@@ -52917,8 +56222,15 @@
       <c r="Z462" s="1" t="s">
         <v>893</v>
       </c>
+      <c r="AA462" s="7">
+        <f t="shared" si="7"/>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="AB462">
+        <v>40</v>
+      </c>
     </row>
-    <row r="463" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>1739</v>
       </c>
@@ -52997,8 +56309,15 @@
       <c r="Z463" s="1" t="s">
         <v>1741</v>
       </c>
+      <c r="AA463" s="7">
+        <f t="shared" si="7"/>
+        <v>21.866666666666667</v>
+      </c>
+      <c r="AB463">
+        <v>25</v>
+      </c>
     </row>
-    <row r="464" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>2343</v>
       </c>
@@ -53077,8 +56396,15 @@
       <c r="Z464" s="1" t="s">
         <v>2345</v>
       </c>
+      <c r="AA464" s="7">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="AB464">
+        <v>32.6</v>
+      </c>
     </row>
-    <row r="465" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>2121</v>
       </c>
@@ -53157,8 +56483,15 @@
       <c r="Z465" s="1" t="s">
         <v>2123</v>
       </c>
+      <c r="AA465" s="7">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="AB465">
+        <v>31.833999999999996</v>
+      </c>
     </row>
-    <row r="466" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>1045</v>
       </c>
@@ -53237,8 +56570,15 @@
       <c r="Z466" s="1" t="s">
         <v>1047</v>
       </c>
+      <c r="AA466" s="7">
+        <f t="shared" si="7"/>
+        <v>20.500422135236782</v>
+      </c>
+      <c r="AB466">
+        <v>32.572499999999998</v>
+      </c>
     </row>
-    <row r="467" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>34</v>
       </c>
@@ -53317,8 +56657,15 @@
       <c r="Z467" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AA467" s="7">
+        <f t="shared" si="7"/>
+        <v>19.972222222222221</v>
+      </c>
+      <c r="AB467">
+        <v>36</v>
+      </c>
     </row>
-    <row r="468" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>540</v>
       </c>
@@ -53397,8 +56744,15 @@
       <c r="Z468" s="1" t="s">
         <v>542</v>
       </c>
+      <c r="AA468" s="7">
+        <f t="shared" si="7"/>
+        <v>28.4</v>
+      </c>
+      <c r="AB468">
+        <v>35</v>
+      </c>
     </row>
-    <row r="469" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1847</v>
       </c>
@@ -53477,8 +56831,15 @@
       <c r="Z469" s="1" t="s">
         <v>1849</v>
       </c>
+      <c r="AA469" s="7">
+        <f t="shared" si="7"/>
+        <v>22.142857142857142</v>
+      </c>
+      <c r="AB469">
+        <v>35</v>
+      </c>
     </row>
-    <row r="470" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>1869</v>
       </c>
@@ -53557,8 +56918,15 @@
       <c r="Z470" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AA470" s="7">
+        <f t="shared" si="7"/>
+        <v>33.5</v>
+      </c>
+      <c r="AB470">
+        <v>14</v>
+      </c>
     </row>
-    <row r="471" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>903</v>
       </c>
@@ -53637,8 +57005,15 @@
       <c r="Z471" s="1" t="s">
         <v>905</v>
       </c>
+      <c r="AA471" s="7">
+        <f t="shared" si="7"/>
+        <v>21.903225806451612</v>
+      </c>
+      <c r="AB471">
+        <v>31</v>
+      </c>
     </row>
-    <row r="472" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>406</v>
       </c>
@@ -53717,8 +57092,15 @@
       <c r="Z472" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="AA472" s="7">
+        <f t="shared" si="7"/>
+        <v>18.307692307692307</v>
+      </c>
+      <c r="AB472">
+        <v>32.5</v>
+      </c>
     </row>
-    <row r="473" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>744</v>
       </c>
@@ -53797,8 +57179,15 @@
       <c r="Z473" s="1" t="s">
         <v>346</v>
       </c>
+      <c r="AA473" s="7">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="AB473">
+        <v>27.2</v>
+      </c>
     </row>
-    <row r="474" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>748</v>
       </c>
@@ -53877,8 +57266,15 @@
       <c r="Z474" s="1" t="s">
         <v>750</v>
       </c>
+      <c r="AA474" s="7">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="AB474">
+        <v>50</v>
+      </c>
     </row>
-    <row r="475" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>2358</v>
       </c>
@@ -53956,6 +57352,13 @@
       </c>
       <c r="Z475" s="1" t="s">
         <v>2360</v>
+      </c>
+      <c r="AA475" s="7">
+        <f t="shared" si="7"/>
+        <v>24.375</v>
+      </c>
+      <c r="AB475">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
